--- a/input/assessments/automated_search/extracted_paragraphs/manual_validation/validated_AR6_WG1_matches.xlsx
+++ b/input/assessments/automated_search/extracted_paragraphs/manual_validation/validated_AR6_WG1_matches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanis\Documents\scripts\IPBES-Data\IPBES_Data_Indicators\input\assessments\automated_search\extracted_paragraphs\manual_validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JLU-SU\Documents\GitHub\IPBES-Data\IPBES_Data_Indicators\input\assessments\automated_search\extracted_paragraphs\manual_validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2BB14B-DFC5-4537-9F82-2DB08E7B62D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E3A58B-8084-4DA6-BB58-6FF0D0AF6381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2730" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -5837,12 +5837,12 @@
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -5972,16 +5972,16 @@
   <dimension ref="A1:AB1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" customWidth="1"/>
+    <col min="4" max="4" width="46.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" customHeight="1">

--- a/input/assessments/automated_search/extracted_paragraphs/manual_validation/validated_AR6_WG1_matches.xlsx
+++ b/input/assessments/automated_search/extracted_paragraphs/manual_validation/validated_AR6_WG1_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JLU-SU\Documents\GitHub\IPBES-Data\IPBES_Data_Indicators\input\assessments\automated_search\extracted_paragraphs\manual_validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E3A58B-8084-4DA6-BB58-6FF0D0AF6381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50AADE9-988A-412F-BD80-FF19AE83E689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2730" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="1760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="1759">
   <si>
     <t>Sheet</t>
   </si>
@@ -2824,9 +2824,6 @@
   </si>
   <si>
     <t>Over South America, there is observational and paleoclimate evidence of declining precipitation amount during the past 50 years over the Altiplano and central Chile, primarily explained by the PDO but with at least 25% of the decline attributed to anthropogenic influence (Morales et al., 2012; Neukom et al., 2015; Boisier et al., 2016; Seager et al., 2019b; Garreaud et al., 2020). In contrast, a significant rainfall increase has been detected over the Peruvian– Bolivian Altiplano (from observational data and satellite-based estimations) since the 1980s (Figure 8.7; Imfeld et al., 2020; Segura – et al., 2020). Long-term (1902 2005) precipitation data INDICate positive trends over south-eastern South America and negative trends over the southern Andes, with at least a partial contribution from anthropogenic forcing (Gonzalez et al., 2014; Vera and Díaz, 2015; Díaz and Vera, 2017; Boisier et al., 2018; Knutson and Zeng, 2018; see further assessment in Section 10.4.2.2 and Atlas.7.2.2). The Peruvian Amazon has exhibited significant rainfall decreases during the dry season since 1980 (Lavado et al., 2013; Ronchail et al., 2018). Increases in wet season rainfall in the northern and central Amazon since the 1980s and decreases during the dry season in the southern Amazon (Barreiro et al., 2014; Gloor et al., 2015; Martín-Gómez and Barreiro, 2016; J.C. Espinoza et al., 2018; X.Y. Wang et al., 2018; Haghtalab et al., 2020) are not explained by radiative forcing based on CMIP6 experiments (Figure 8.7) and trends are insignificant over longer periods since 1930 (Kumar et al., 2013) or more recently, since 1973 (Almeida et al., 2017). See Section 8.3.2.4.5 for monsoon-related changes. For the tropical Andes region, trends in annual precipitation show heterogenous patterns, ranging between –4% per decade and +4% per decade in the northern and southern tropical Andes for a 30-year period at – the end of the 20th century, although increases during 1965 1984 and decreases since 1984 have been registered in Bolivia (Carmona and Poveda, 2014; Pabón-Caicedo et al., 2020).</t>
-  </si>
-  <si>
-    <t>Precipiation</t>
   </si>
   <si>
     <t>AR6_WG1_8_11</t>
@@ -5972,8 +5969,8 @@
   <dimension ref="A1:AB1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G371" sqref="G371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6886,10 +6883,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -21412,10 +21409,10 @@
         <v>1</v>
       </c>
       <c r="F371" s="12" t="s">
-        <v>912</v>
+        <v>946</v>
       </c>
       <c r="G371" s="12" t="s">
-        <v>912</v>
+        <v>946</v>
       </c>
       <c r="H371" s="11"/>
       <c r="I371" s="11"/>
@@ -21441,7 +21438,7 @@
     </row>
     <row r="372" spans="1:28" ht="122.25" customHeight="1">
       <c r="A372" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B372" s="11">
         <v>8</v>
@@ -21450,16 +21447,16 @@
         <v>28</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E372" s="12">
         <v>1</v>
       </c>
       <c r="F372" s="12" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G372" s="12" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H372" s="11"/>
       <c r="I372" s="11"/>
@@ -21485,7 +21482,7 @@
     </row>
     <row r="373" spans="1:28" ht="122.25" customHeight="1">
       <c r="A373" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B373" s="11">
         <v>8</v>
@@ -21494,16 +21491,16 @@
         <v>30</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E373" s="12">
         <v>2</v>
       </c>
       <c r="F373" s="12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G373" s="12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H373" s="11"/>
       <c r="I373" s="11"/>
@@ -21529,7 +21526,7 @@
     </row>
     <row r="374" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A374" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B374" s="11">
         <v>8</v>
@@ -21538,7 +21535,7 @@
         <v>32</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E374" s="11">
         <v>3</v>
@@ -21569,7 +21566,7 @@
     </row>
     <row r="375" spans="1:28" ht="122.25" customHeight="1">
       <c r="A375" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B375" s="11">
         <v>8</v>
@@ -21578,16 +21575,16 @@
         <v>33</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E375" s="12">
         <v>1</v>
       </c>
       <c r="F375" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G375" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H375" s="11"/>
       <c r="I375" s="11"/>
@@ -21613,7 +21610,7 @@
     </row>
     <row r="376" spans="1:28" ht="122.25" customHeight="1">
       <c r="A376" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B376" s="11">
         <v>8</v>
@@ -21622,16 +21619,16 @@
         <v>33</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E376" s="12">
         <v>1</v>
       </c>
       <c r="F376" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G376" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H376" s="11"/>
       <c r="I376" s="11"/>
@@ -21657,7 +21654,7 @@
     </row>
     <row r="377" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A377" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B377" s="11">
         <v>8</v>
@@ -21666,7 +21663,7 @@
         <v>35</v>
       </c>
       <c r="D377" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E377" s="11">
         <v>3</v>
@@ -21697,7 +21694,7 @@
     </row>
     <row r="378" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A378" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B378" s="11">
         <v>8</v>
@@ -21706,7 +21703,7 @@
         <v>38</v>
       </c>
       <c r="D378" s="11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E378" s="11">
         <v>3</v>
@@ -21737,7 +21734,7 @@
     </row>
     <row r="379" spans="1:28" ht="122.25" customHeight="1">
       <c r="A379" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B379" s="11">
         <v>8</v>
@@ -21746,16 +21743,16 @@
         <v>39</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E379" s="15">
         <v>1</v>
       </c>
       <c r="F379" s="15" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G379" s="15" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H379" s="11"/>
       <c r="I379" s="11"/>
@@ -21781,7 +21778,7 @@
     </row>
     <row r="380" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A380" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B380" s="11">
         <v>8</v>
@@ -21790,7 +21787,7 @@
         <v>42</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E380" s="11">
         <v>3</v>
@@ -21821,7 +21818,7 @@
     </row>
     <row r="381" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A381" s="11" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B381" s="11">
         <v>8</v>
@@ -21830,7 +21827,7 @@
         <v>42</v>
       </c>
       <c r="D381" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E381" s="11">
         <v>3</v>
@@ -21861,7 +21858,7 @@
     </row>
     <row r="382" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A382" s="11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B382" s="11">
         <v>8</v>
@@ -21870,7 +21867,7 @@
         <v>42</v>
       </c>
       <c r="D382" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E382" s="11">
         <v>3</v>
@@ -21901,7 +21898,7 @@
     </row>
     <row r="383" spans="1:28" ht="122.25" customHeight="1">
       <c r="A383" s="11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B383" s="11">
         <v>8</v>
@@ -21910,16 +21907,16 @@
         <v>42</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E383" s="12">
         <v>1</v>
       </c>
       <c r="F383" s="12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G383" s="12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H383" s="11"/>
       <c r="I383" s="11"/>
@@ -21945,7 +21942,7 @@
     </row>
     <row r="384" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A384" s="11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B384" s="11">
         <v>8</v>
@@ -21954,7 +21951,7 @@
         <v>43</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E384" s="11">
         <v>3</v>
@@ -21985,7 +21982,7 @@
     </row>
     <row r="385" spans="1:28" ht="122.25" customHeight="1">
       <c r="A385" s="11" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B385" s="11">
         <v>8</v>
@@ -21994,16 +21991,16 @@
         <v>43</v>
       </c>
       <c r="D385" s="11" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E385" s="12">
         <v>1</v>
       </c>
       <c r="F385" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G385" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H385" s="11"/>
       <c r="I385" s="11"/>
@@ -22029,7 +22026,7 @@
     </row>
     <row r="386" spans="1:28" ht="122.25" customHeight="1">
       <c r="A386" s="11" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B386" s="11">
         <v>8</v>
@@ -22038,16 +22035,16 @@
         <v>43</v>
       </c>
       <c r="D386" s="11" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E386" s="12">
         <v>1</v>
       </c>
       <c r="F386" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G386" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H386" s="11"/>
       <c r="I386" s="11"/>
@@ -22073,7 +22070,7 @@
     </row>
     <row r="387" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A387" s="11" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B387" s="11">
         <v>8</v>
@@ -22082,7 +22079,7 @@
         <v>44</v>
       </c>
       <c r="D387" s="11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E387" s="11">
         <v>3</v>
@@ -22113,7 +22110,7 @@
     </row>
     <row r="388" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A388" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B388" s="11">
         <v>8</v>
@@ -22122,7 +22119,7 @@
         <v>44</v>
       </c>
       <c r="D388" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E388" s="11">
         <v>3</v>
@@ -22153,7 +22150,7 @@
     </row>
     <row r="389" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A389" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B389" s="11">
         <v>8</v>
@@ -22162,7 +22159,7 @@
         <v>45</v>
       </c>
       <c r="D389" s="11" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E389" s="11">
         <v>3</v>
@@ -22193,7 +22190,7 @@
     </row>
     <row r="390" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A390" s="11" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B390" s="11">
         <v>8</v>
@@ -22202,7 +22199,7 @@
         <v>45</v>
       </c>
       <c r="D390" s="11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E390" s="11">
         <v>3</v>
@@ -22233,7 +22230,7 @@
     </row>
     <row r="391" spans="1:28" ht="122.25" customHeight="1">
       <c r="A391" s="11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B391" s="11">
         <v>8</v>
@@ -22242,16 +22239,16 @@
         <v>45</v>
       </c>
       <c r="D391" s="11" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E391" s="15">
         <v>1</v>
       </c>
       <c r="F391" s="15" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G391" s="15" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H391" s="11"/>
       <c r="I391" s="11"/>
@@ -22277,7 +22274,7 @@
     </row>
     <row r="392" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A392" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B392" s="11">
         <v>8</v>
@@ -22286,7 +22283,7 @@
         <v>45</v>
       </c>
       <c r="D392" s="11" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E392" s="11">
         <v>3</v>
@@ -22317,7 +22314,7 @@
     </row>
     <row r="393" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A393" s="11" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B393" s="11">
         <v>8</v>
@@ -22326,7 +22323,7 @@
         <v>45</v>
       </c>
       <c r="D393" s="11" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E393" s="11">
         <v>3</v>
@@ -22357,7 +22354,7 @@
     </row>
     <row r="394" spans="1:28" ht="122.25" customHeight="1">
       <c r="A394" s="11" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B394" s="11">
         <v>8</v>
@@ -22366,16 +22363,16 @@
         <v>46</v>
       </c>
       <c r="D394" s="11" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E394" s="12">
         <v>1</v>
       </c>
       <c r="F394" s="12" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G394" s="12" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H394" s="11"/>
       <c r="I394" s="11"/>
@@ -22401,7 +22398,7 @@
     </row>
     <row r="395" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A395" s="11" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B395" s="11">
         <v>8</v>
@@ -22410,7 +22407,7 @@
         <v>46</v>
       </c>
       <c r="D395" s="11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E395" s="11">
         <v>3</v>
@@ -22441,7 +22438,7 @@
     </row>
     <row r="396" spans="1:28" ht="122.25" customHeight="1">
       <c r="A396" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B396" s="11">
         <v>8</v>
@@ -22450,16 +22447,16 @@
         <v>47</v>
       </c>
       <c r="D396" s="11" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E396" s="12">
         <v>2</v>
       </c>
       <c r="F396" s="12" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G396" s="12" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H396" s="11"/>
       <c r="I396" s="11"/>
@@ -22485,7 +22482,7 @@
     </row>
     <row r="397" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A397" s="11" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B397" s="11">
         <v>8</v>
@@ -22494,7 +22491,7 @@
         <v>47</v>
       </c>
       <c r="D397" s="11" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E397" s="11">
         <v>3</v>
@@ -22525,7 +22522,7 @@
     </row>
     <row r="398" spans="1:28" ht="122.25" customHeight="1">
       <c r="A398" s="11" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B398" s="11">
         <v>8</v>
@@ -22534,16 +22531,16 @@
         <v>53</v>
       </c>
       <c r="D398" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E398" s="12">
         <v>1</v>
       </c>
       <c r="F398" s="12" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G398" s="12" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H398" s="11"/>
       <c r="I398" s="11"/>
@@ -22569,7 +22566,7 @@
     </row>
     <row r="399" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A399" s="11" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B399" s="11">
         <v>8</v>
@@ -22578,7 +22575,7 @@
         <v>56</v>
       </c>
       <c r="D399" s="11" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E399" s="11">
         <v>3</v>
@@ -22609,7 +22606,7 @@
     </row>
     <row r="400" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A400" s="22" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B400" s="11">
         <v>8</v>
@@ -22618,7 +22615,7 @@
         <v>59</v>
       </c>
       <c r="D400" s="11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E400" s="11"/>
       <c r="F400" s="11"/>
@@ -22647,7 +22644,7 @@
     </row>
     <row r="401" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A401" s="11" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B401" s="11">
         <v>8</v>
@@ -22656,7 +22653,7 @@
         <v>63</v>
       </c>
       <c r="D401" s="11" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E401" s="11">
         <v>3</v>
@@ -22687,7 +22684,7 @@
     </row>
     <row r="402" spans="1:28" ht="122.25" customHeight="1">
       <c r="A402" s="11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B402" s="11">
         <v>8</v>
@@ -22696,16 +22693,16 @@
         <v>65</v>
       </c>
       <c r="D402" s="11" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E402" s="12">
         <v>2</v>
       </c>
       <c r="F402" s="12" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G402" s="12" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H402" s="11"/>
       <c r="I402" s="11"/>
@@ -22731,7 +22728,7 @@
     </row>
     <row r="403" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A403" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B403" s="11">
         <v>8</v>
@@ -22740,7 +22737,7 @@
         <v>66</v>
       </c>
       <c r="D403" s="11" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E403" s="11">
         <v>3</v>
@@ -22771,7 +22768,7 @@
     </row>
     <row r="404" spans="1:28" ht="122.25" customHeight="1">
       <c r="A404" s="11" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B404" s="11">
         <v>8</v>
@@ -22780,16 +22777,16 @@
         <v>66</v>
       </c>
       <c r="D404" s="11" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E404" s="15">
         <v>2</v>
       </c>
       <c r="F404" s="15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G404" s="15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H404" s="11"/>
       <c r="I404" s="11"/>
@@ -22815,7 +22812,7 @@
     </row>
     <row r="405" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A405" s="11" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B405" s="11">
         <v>8</v>
@@ -22824,7 +22821,7 @@
         <v>68</v>
       </c>
       <c r="D405" s="11" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E405" s="11">
         <v>3</v>
@@ -22855,7 +22852,7 @@
     </row>
     <row r="406" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A406" s="11" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B406" s="11">
         <v>8</v>
@@ -22864,7 +22861,7 @@
         <v>69</v>
       </c>
       <c r="D406" s="11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E406" s="11">
         <v>3</v>
@@ -22895,7 +22892,7 @@
     </row>
     <row r="407" spans="1:28" ht="122.25" customHeight="1">
       <c r="A407" s="11" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B407" s="11">
         <v>8</v>
@@ -22904,16 +22901,16 @@
         <v>71</v>
       </c>
       <c r="D407" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E407" s="12">
         <v>1</v>
       </c>
       <c r="F407" s="12" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G407" s="12" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H407" s="11"/>
       <c r="I407" s="11"/>
@@ -22939,7 +22936,7 @@
     </row>
     <row r="408" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A408" s="11" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B408" s="11">
         <v>8</v>
@@ -22948,7 +22945,7 @@
         <v>73</v>
       </c>
       <c r="D408" s="11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E408" s="11">
         <v>3</v>
@@ -22979,7 +22976,7 @@
     </row>
     <row r="409" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A409" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B409" s="11">
         <v>8</v>
@@ -22988,7 +22985,7 @@
         <v>75</v>
       </c>
       <c r="D409" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E409" s="11">
         <v>3</v>
@@ -23019,7 +23016,7 @@
     </row>
     <row r="410" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A410" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B410" s="11">
         <v>8</v>
@@ -23028,7 +23025,7 @@
         <v>75</v>
       </c>
       <c r="D410" s="11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E410" s="11">
         <v>3</v>
@@ -23059,7 +23056,7 @@
     </row>
     <row r="411" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A411" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B411" s="11">
         <v>8</v>
@@ -23068,7 +23065,7 @@
         <v>76</v>
       </c>
       <c r="D411" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E411" s="11">
         <v>3</v>
@@ -23099,7 +23096,7 @@
     </row>
     <row r="412" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A412" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B412" s="11">
         <v>8</v>
@@ -23108,7 +23105,7 @@
         <v>76</v>
       </c>
       <c r="D412" s="11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E412" s="11">
         <v>3</v>
@@ -23139,7 +23136,7 @@
     </row>
     <row r="413" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A413" s="11" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B413" s="11">
         <v>8</v>
@@ -23148,7 +23145,7 @@
         <v>77</v>
       </c>
       <c r="D413" s="11" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E413" s="11">
         <v>3</v>
@@ -23179,7 +23176,7 @@
     </row>
     <row r="414" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A414" s="11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B414" s="11">
         <v>8</v>
@@ -23188,7 +23185,7 @@
         <v>77</v>
       </c>
       <c r="D414" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E414" s="11">
         <v>3</v>
@@ -23219,7 +23216,7 @@
     </row>
     <row r="415" spans="1:28" ht="122.25" customHeight="1">
       <c r="A415" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B415" s="11">
         <v>8</v>
@@ -23228,16 +23225,16 @@
         <v>77</v>
       </c>
       <c r="D415" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E415" s="12">
         <v>1</v>
       </c>
       <c r="F415" s="12" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G415" s="12" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H415" s="11"/>
       <c r="I415" s="11"/>
@@ -23263,7 +23260,7 @@
     </row>
     <row r="416" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A416" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B416" s="11">
         <v>8</v>
@@ -23272,7 +23269,7 @@
         <v>77</v>
       </c>
       <c r="D416" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E416" s="11">
         <v>3</v>
@@ -23303,7 +23300,7 @@
     </row>
     <row r="417" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A417" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B417" s="11">
         <v>8</v>
@@ -23312,7 +23309,7 @@
         <v>80</v>
       </c>
       <c r="D417" s="11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E417" s="11">
         <v>3</v>
@@ -23343,7 +23340,7 @@
     </row>
     <row r="418" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A418" s="11" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B418" s="11">
         <v>8</v>
@@ -23352,7 +23349,7 @@
         <v>80</v>
       </c>
       <c r="D418" s="11" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E418" s="11">
         <v>3</v>
@@ -23383,7 +23380,7 @@
     </row>
     <row r="419" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A419" s="11" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B419" s="11">
         <v>8</v>
@@ -23392,7 +23389,7 @@
         <v>80</v>
       </c>
       <c r="D419" s="11" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E419" s="11">
         <v>3</v>
@@ -23423,7 +23420,7 @@
     </row>
     <row r="420" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A420" s="11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B420" s="11">
         <v>8</v>
@@ -23432,7 +23429,7 @@
         <v>81</v>
       </c>
       <c r="D420" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E420" s="11">
         <v>3</v>
@@ -23463,7 +23460,7 @@
     </row>
     <row r="421" spans="1:28" ht="122.25" customHeight="1">
       <c r="A421" s="11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B421" s="11">
         <v>8</v>
@@ -23472,16 +23469,16 @@
         <v>83</v>
       </c>
       <c r="D421" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E421" s="12">
         <v>1</v>
       </c>
       <c r="F421" s="12" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G421" s="12" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H421" s="11"/>
       <c r="I421" s="11"/>
@@ -23507,7 +23504,7 @@
     </row>
     <row r="422" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A422" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B422" s="11">
         <v>8</v>
@@ -23516,7 +23513,7 @@
         <v>87</v>
       </c>
       <c r="D422" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E422" s="11">
         <v>3</v>
@@ -23547,7 +23544,7 @@
     </row>
     <row r="423" spans="1:28" ht="122.25" customHeight="1">
       <c r="A423" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B423" s="11">
         <v>8</v>
@@ -23556,16 +23553,16 @@
         <v>88</v>
       </c>
       <c r="D423" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E423" s="15">
         <v>1</v>
       </c>
       <c r="F423" s="15" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G423" s="15" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H423" s="11"/>
       <c r="I423" s="11"/>
@@ -23591,7 +23588,7 @@
     </row>
     <row r="424" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A424" s="11" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B424" s="11">
         <v>8</v>
@@ -23600,7 +23597,7 @@
         <v>89</v>
       </c>
       <c r="D424" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E424" s="11">
         <v>3</v>
@@ -23631,7 +23628,7 @@
     </row>
     <row r="425" spans="1:28" ht="122.25" customHeight="1">
       <c r="A425" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B425" s="11">
         <v>8</v>
@@ -23640,16 +23637,16 @@
         <v>90</v>
       </c>
       <c r="D425" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E425" s="12">
         <v>1</v>
       </c>
       <c r="F425" s="12" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G425" s="12" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H425" s="11"/>
       <c r="I425" s="11"/>
@@ -23675,7 +23672,7 @@
     </row>
     <row r="426" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A426" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B426" s="11">
         <v>8</v>
@@ -23684,7 +23681,7 @@
         <v>97</v>
       </c>
       <c r="D426" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E426" s="11">
         <v>3</v>
@@ -23715,7 +23712,7 @@
     </row>
     <row r="427" spans="1:28" ht="122.25" customHeight="1">
       <c r="A427" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B427" s="11">
         <v>9</v>
@@ -23724,16 +23721,16 @@
         <v>11</v>
       </c>
       <c r="D427" s="11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E427" s="15">
         <v>2</v>
       </c>
       <c r="F427" s="15" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G427" s="15" t="s">
         <v>1043</v>
-      </c>
-      <c r="G427" s="15" t="s">
-        <v>1044</v>
       </c>
       <c r="H427" s="11"/>
       <c r="I427" s="11"/>
@@ -23759,7 +23756,7 @@
     </row>
     <row r="428" spans="1:28" ht="122.25" customHeight="1">
       <c r="A428" s="11" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B428" s="11">
         <v>9</v>
@@ -23768,7 +23765,7 @@
         <v>13</v>
       </c>
       <c r="D428" s="11" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E428" s="12">
         <v>1</v>
@@ -23803,7 +23800,7 @@
     </row>
     <row r="429" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A429" s="11" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B429" s="11">
         <v>9</v>
@@ -23812,7 +23809,7 @@
         <v>22</v>
       </c>
       <c r="D429" s="11" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E429" s="11">
         <v>3</v>
@@ -23843,7 +23840,7 @@
     </row>
     <row r="430" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A430" s="11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B430" s="11">
         <v>9</v>
@@ -23852,7 +23849,7 @@
         <v>24</v>
       </c>
       <c r="D430" s="11" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E430" s="11">
         <v>3</v>
@@ -23883,7 +23880,7 @@
     </row>
     <row r="431" spans="1:28" ht="122.25" customHeight="1">
       <c r="A431" s="11" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B431" s="11">
         <v>9</v>
@@ -23892,16 +23889,16 @@
         <v>27</v>
       </c>
       <c r="D431" s="11" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E431" s="12">
         <v>1</v>
       </c>
       <c r="F431" s="12" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G431" s="12" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H431" s="11"/>
       <c r="I431" s="11"/>
@@ -23927,7 +23924,7 @@
     </row>
     <row r="432" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A432" s="11" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B432" s="11">
         <v>9</v>
@@ -23936,7 +23933,7 @@
         <v>32</v>
       </c>
       <c r="D432" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E432" s="11">
         <v>3</v>
@@ -23967,7 +23964,7 @@
     </row>
     <row r="433" spans="1:28" ht="122.25" customHeight="1">
       <c r="A433" s="11" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B433" s="11">
         <v>9</v>
@@ -23976,16 +23973,16 @@
         <v>37</v>
       </c>
       <c r="D433" s="11" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E433" s="12">
         <v>1</v>
       </c>
       <c r="F433" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G433" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H433" s="11"/>
       <c r="I433" s="11"/>
@@ -24011,7 +24008,7 @@
     </row>
     <row r="434" spans="1:28" ht="122.25" customHeight="1">
       <c r="A434" s="11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B434" s="11">
         <v>9</v>
@@ -24020,16 +24017,16 @@
         <v>37</v>
       </c>
       <c r="D434" s="11" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E434" s="12">
         <v>2</v>
       </c>
       <c r="F434" s="12" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G434" s="12" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H434" s="11"/>
       <c r="I434" s="11"/>
@@ -24055,7 +24052,7 @@
     </row>
     <row r="435" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A435" s="19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B435" s="11">
         <v>9</v>
@@ -24064,7 +24061,7 @@
         <v>38</v>
       </c>
       <c r="D435" s="11" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E435" s="11">
         <v>3</v>
@@ -24095,7 +24092,7 @@
     </row>
     <row r="436" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A436" s="11" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B436" s="11">
         <v>9</v>
@@ -24104,7 +24101,7 @@
         <v>40</v>
       </c>
       <c r="D436" s="11" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E436" s="11">
         <v>3</v>
@@ -24135,7 +24132,7 @@
     </row>
     <row r="437" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A437" s="11" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B437" s="11">
         <v>9</v>
@@ -24144,7 +24141,7 @@
         <v>43</v>
       </c>
       <c r="D437" s="11" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E437" s="11">
         <v>3</v>
@@ -24175,7 +24172,7 @@
     </row>
     <row r="438" spans="1:28" ht="122.25" customHeight="1">
       <c r="A438" s="11" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B438" s="11">
         <v>9</v>
@@ -24184,7 +24181,7 @@
         <v>43</v>
       </c>
       <c r="D438" s="11" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E438" s="12">
         <v>1</v>
@@ -24219,7 +24216,7 @@
     </row>
     <row r="439" spans="1:28" ht="122.25" customHeight="1">
       <c r="A439" s="11" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B439" s="11">
         <v>9</v>
@@ -24228,16 +24225,16 @@
         <v>47</v>
       </c>
       <c r="D439" s="11" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E439" s="12">
         <v>2</v>
       </c>
       <c r="F439" s="12" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G439" s="12" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H439" s="11"/>
       <c r="I439" s="11"/>
@@ -24263,7 +24260,7 @@
     </row>
     <row r="440" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A440" s="11" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B440" s="11">
         <v>9</v>
@@ -24272,7 +24269,7 @@
         <v>47</v>
       </c>
       <c r="D440" s="11" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E440" s="11">
         <v>3</v>
@@ -24303,7 +24300,7 @@
     </row>
     <row r="441" spans="1:28" ht="122.25" customHeight="1">
       <c r="A441" s="11" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B441" s="11">
         <v>9</v>
@@ -24312,16 +24309,16 @@
         <v>48</v>
       </c>
       <c r="D441" s="11" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E441" s="12">
         <v>1</v>
       </c>
       <c r="F441" s="12" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G441" s="12" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H441" s="11"/>
       <c r="I441" s="11"/>
@@ -24347,7 +24344,7 @@
     </row>
     <row r="442" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A442" s="11" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B442" s="11">
         <v>9</v>
@@ -24356,7 +24353,7 @@
         <v>51</v>
       </c>
       <c r="D442" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E442" s="11">
         <v>3</v>
@@ -24387,7 +24384,7 @@
     </row>
     <row r="443" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A443" s="19" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B443" s="11">
         <v>9</v>
@@ -24396,7 +24393,7 @@
         <v>51</v>
       </c>
       <c r="D443" s="11" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E443" s="11">
         <v>3</v>
@@ -24427,7 +24424,7 @@
     </row>
     <row r="444" spans="1:28" ht="122.25" customHeight="1">
       <c r="A444" s="11" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B444" s="11">
         <v>9</v>
@@ -24436,16 +24433,16 @@
         <v>55</v>
       </c>
       <c r="D444" s="11" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E444" s="12">
         <v>1</v>
       </c>
       <c r="F444" s="12" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G444" s="12" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H444" s="11"/>
       <c r="I444" s="11"/>
@@ -24471,7 +24468,7 @@
     </row>
     <row r="445" spans="1:28" ht="403.5" hidden="1" customHeight="1">
       <c r="A445" s="11" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B445" s="11">
         <v>9</v>
@@ -24480,7 +24477,7 @@
         <v>55</v>
       </c>
       <c r="D445" s="11" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E445" s="11">
         <v>3</v>
@@ -24511,7 +24508,7 @@
     </row>
     <row r="446" spans="1:28" ht="122.25" customHeight="1">
       <c r="A446" s="11" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B446" s="11">
         <v>9</v>
@@ -24520,16 +24517,16 @@
         <v>59</v>
       </c>
       <c r="D446" s="11" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E446" s="12">
         <v>1</v>
       </c>
       <c r="F446" s="12" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G446" s="12" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H446" s="11"/>
       <c r="I446" s="11"/>
@@ -24555,7 +24552,7 @@
     </row>
     <row r="447" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A447" s="11" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B447" s="11">
         <v>9</v>
@@ -24564,7 +24561,7 @@
         <v>60</v>
       </c>
       <c r="D447" s="11" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E447" s="11">
         <v>3</v>
@@ -24595,7 +24592,7 @@
     </row>
     <row r="448" spans="1:28" ht="122.25" customHeight="1">
       <c r="A448" s="11" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B448" s="11">
         <v>9</v>
@@ -24604,16 +24601,16 @@
         <v>65</v>
       </c>
       <c r="D448" s="11" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E448" s="12">
         <v>1</v>
       </c>
       <c r="F448" s="12" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G448" s="12" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H448" s="11"/>
       <c r="I448" s="11"/>
@@ -24639,7 +24636,7 @@
     </row>
     <row r="449" spans="1:28" ht="122.25" customHeight="1">
       <c r="A449" s="11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B449" s="11">
         <v>9</v>
@@ -24648,16 +24645,16 @@
         <v>66</v>
       </c>
       <c r="D449" s="11" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E449" s="12">
         <v>1</v>
       </c>
       <c r="F449" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G449" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H449" s="11"/>
       <c r="I449" s="11"/>
@@ -24683,7 +24680,7 @@
     </row>
     <row r="450" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A450" s="11" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B450" s="11">
         <v>9</v>
@@ -24692,7 +24689,7 @@
         <v>68</v>
       </c>
       <c r="D450" s="11" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E450" s="11">
         <v>3</v>
@@ -24723,7 +24720,7 @@
     </row>
     <row r="451" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A451" s="11" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B451" s="11">
         <v>9</v>
@@ -24732,7 +24729,7 @@
         <v>69</v>
       </c>
       <c r="D451" s="11" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E451" s="11">
         <v>3</v>
@@ -24763,7 +24760,7 @@
     </row>
     <row r="452" spans="1:28" ht="122.25" customHeight="1">
       <c r="A452" s="11" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B452" s="11">
         <v>9</v>
@@ -24772,16 +24769,16 @@
         <v>71</v>
       </c>
       <c r="D452" s="11" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E452" s="12">
         <v>1</v>
       </c>
       <c r="F452" s="12" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G452" s="12" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H452" s="11"/>
       <c r="I452" s="11"/>
@@ -24807,7 +24804,7 @@
     </row>
     <row r="453" spans="1:28" ht="122.25" customHeight="1">
       <c r="A453" s="11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B453" s="11">
         <v>9</v>
@@ -24816,16 +24813,16 @@
         <v>76</v>
       </c>
       <c r="D453" s="11" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E453" s="12">
         <v>2</v>
       </c>
       <c r="F453" s="12" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G453" s="12" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H453" s="11"/>
       <c r="I453" s="11"/>
@@ -24851,7 +24848,7 @@
     </row>
     <row r="454" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A454" s="11" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B454" s="11">
         <v>9</v>
@@ -24860,7 +24857,7 @@
         <v>78</v>
       </c>
       <c r="D454" s="11" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E454" s="11">
         <v>3</v>
@@ -24891,7 +24888,7 @@
     </row>
     <row r="455" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A455" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B455" s="11">
         <v>9</v>
@@ -24900,7 +24897,7 @@
         <v>82</v>
       </c>
       <c r="D455" s="11" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E455" s="11">
         <v>3</v>
@@ -24931,7 +24928,7 @@
     </row>
     <row r="456" spans="1:28" ht="178.5" hidden="1" customHeight="1">
       <c r="A456" s="11" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B456" s="11">
         <v>9</v>
@@ -24940,7 +24937,7 @@
         <v>83</v>
       </c>
       <c r="D456" s="11" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E456" s="11">
         <v>3</v>
@@ -24971,7 +24968,7 @@
     </row>
     <row r="457" spans="1:28" ht="122.25" customHeight="1">
       <c r="A457" s="11" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B457" s="11">
         <v>9</v>
@@ -24980,16 +24977,16 @@
         <v>84</v>
       </c>
       <c r="D457" s="11" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E457" s="12">
         <v>2</v>
       </c>
       <c r="F457" s="12" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G457" s="12" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H457" s="11"/>
       <c r="I457" s="11"/>
@@ -25015,7 +25012,7 @@
     </row>
     <row r="458" spans="1:28" ht="122.25" customHeight="1">
       <c r="A458" s="11" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B458" s="11">
         <v>9</v>
@@ -25024,7 +25021,7 @@
         <v>84</v>
       </c>
       <c r="D458" s="11" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E458" s="12">
         <v>1</v>
@@ -25059,7 +25056,7 @@
     </row>
     <row r="459" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A459" s="11" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B459" s="11">
         <v>9</v>
@@ -25068,7 +25065,7 @@
         <v>84</v>
       </c>
       <c r="D459" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E459" s="11">
         <v>3</v>
@@ -25099,7 +25096,7 @@
     </row>
     <row r="460" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A460" s="11" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B460" s="11">
         <v>9</v>
@@ -25108,7 +25105,7 @@
         <v>84</v>
       </c>
       <c r="D460" s="11" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E460" s="11">
         <v>3</v>
@@ -25139,7 +25136,7 @@
     </row>
     <row r="461" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A461" s="11" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B461" s="11">
         <v>9</v>
@@ -25148,7 +25145,7 @@
         <v>85</v>
       </c>
       <c r="D461" s="11" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E461" s="11">
         <v>3</v>
@@ -25179,7 +25176,7 @@
     </row>
     <row r="462" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A462" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B462" s="11">
         <v>9</v>
@@ -25188,7 +25185,7 @@
         <v>85</v>
       </c>
       <c r="D462" s="11" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E462" s="11">
         <v>3</v>
@@ -25219,7 +25216,7 @@
     </row>
     <row r="463" spans="1:28" ht="122.25" customHeight="1">
       <c r="A463" s="11" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B463" s="11">
         <v>9</v>
@@ -25228,16 +25225,16 @@
         <v>85</v>
       </c>
       <c r="D463" s="11" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E463" s="12">
         <v>1</v>
       </c>
       <c r="F463" s="12" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G463" s="12" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H463" s="11"/>
       <c r="I463" s="11"/>
@@ -25263,7 +25260,7 @@
     </row>
     <row r="464" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A464" s="11" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B464" s="11">
         <v>9</v>
@@ -25272,7 +25269,7 @@
         <v>89</v>
       </c>
       <c r="D464" s="11" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E464" s="11">
         <v>3</v>
@@ -25303,7 +25300,7 @@
     </row>
     <row r="465" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A465" s="11" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B465" s="11">
         <v>9</v>
@@ -25312,7 +25309,7 @@
         <v>96</v>
       </c>
       <c r="D465" s="11" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E465" s="11">
         <v>3</v>
@@ -25343,7 +25340,7 @@
     </row>
     <row r="466" spans="1:28" ht="122.25" customHeight="1">
       <c r="A466" s="11" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B466" s="11">
         <v>9</v>
@@ -25352,16 +25349,16 @@
         <v>96</v>
       </c>
       <c r="D466" s="11" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E466" s="12">
         <v>1</v>
       </c>
       <c r="F466" s="12" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G466" s="12" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H466" s="11"/>
       <c r="I466" s="11"/>
@@ -25387,7 +25384,7 @@
     </row>
     <row r="467" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A467" s="11" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B467" s="11">
         <v>9</v>
@@ -25396,7 +25393,7 @@
         <v>97</v>
       </c>
       <c r="D467" s="11" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E467" s="11">
         <v>3</v>
@@ -25427,7 +25424,7 @@
     </row>
     <row r="468" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A468" s="11" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B468" s="11">
         <v>9</v>
@@ -25436,7 +25433,7 @@
         <v>99</v>
       </c>
       <c r="D468" s="11" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E468" s="11">
         <v>3</v>
@@ -25467,7 +25464,7 @@
     </row>
     <row r="469" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A469" s="11" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B469" s="11">
         <v>9</v>
@@ -25476,7 +25473,7 @@
         <v>99</v>
       </c>
       <c r="D469" s="11" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E469" s="11">
         <v>3</v>
@@ -25507,7 +25504,7 @@
     </row>
     <row r="470" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A470" s="11" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B470" s="11">
         <v>9</v>
@@ -25516,7 +25513,7 @@
         <v>100</v>
       </c>
       <c r="D470" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E470" s="11">
         <v>3</v>
@@ -25547,7 +25544,7 @@
     </row>
     <row r="471" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A471" s="11" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B471" s="11">
         <v>9</v>
@@ -25556,7 +25553,7 @@
         <v>100</v>
       </c>
       <c r="D471" s="11" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E471" s="11">
         <v>3</v>
@@ -25587,7 +25584,7 @@
     </row>
     <row r="472" spans="1:28" ht="122.25" customHeight="1">
       <c r="A472" s="11" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B472" s="11">
         <v>9</v>
@@ -25596,16 +25593,16 @@
         <v>104</v>
       </c>
       <c r="D472" s="11" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E472" s="12">
         <v>2</v>
       </c>
       <c r="F472" s="12" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G472" s="12" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H472" s="11"/>
       <c r="I472" s="11"/>
@@ -25631,7 +25628,7 @@
     </row>
     <row r="473" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A473" s="19" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B473" s="11">
         <v>10</v>
@@ -25640,7 +25637,7 @@
         <v>9</v>
       </c>
       <c r="D473" s="11" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E473" s="11">
         <v>3</v>
@@ -25671,7 +25668,7 @@
     </row>
     <row r="474" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A474" s="11" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B474" s="11">
         <v>10</v>
@@ -25680,7 +25677,7 @@
         <v>13</v>
       </c>
       <c r="D474" s="11" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E474" s="11">
         <v>3</v>
@@ -25711,7 +25708,7 @@
     </row>
     <row r="475" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A475" s="11" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B475" s="11">
         <v>10</v>
@@ -25720,7 +25717,7 @@
         <v>13</v>
       </c>
       <c r="D475" s="11" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E475" s="11">
         <v>3</v>
@@ -25751,7 +25748,7 @@
     </row>
     <row r="476" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A476" s="22" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B476" s="11">
         <v>10</v>
@@ -25760,7 +25757,7 @@
         <v>14</v>
       </c>
       <c r="D476" s="11" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E476" s="11"/>
       <c r="F476" s="11"/>
@@ -25789,7 +25786,7 @@
     </row>
     <row r="477" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A477" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B477" s="11">
         <v>10</v>
@@ -25798,7 +25795,7 @@
         <v>15</v>
       </c>
       <c r="D477" s="11" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E477" s="11">
         <v>3</v>
@@ -25829,7 +25826,7 @@
     </row>
     <row r="478" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A478" s="22" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B478" s="11">
         <v>10</v>
@@ -25838,7 +25835,7 @@
         <v>19</v>
       </c>
       <c r="D478" s="11" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E478" s="11"/>
       <c r="F478" s="11"/>
@@ -25867,7 +25864,7 @@
     </row>
     <row r="479" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A479" s="11" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B479" s="11">
         <v>10</v>
@@ -25876,7 +25873,7 @@
         <v>22</v>
       </c>
       <c r="D479" s="11" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E479" s="11">
         <v>3</v>
@@ -25907,7 +25904,7 @@
     </row>
     <row r="480" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A480" s="19" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B480" s="11">
         <v>10</v>
@@ -25916,7 +25913,7 @@
         <v>23</v>
       </c>
       <c r="D480" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E480" s="11">
         <v>3</v>
@@ -25947,7 +25944,7 @@
     </row>
     <row r="481" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A481" s="11" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B481" s="11">
         <v>10</v>
@@ -25956,7 +25953,7 @@
         <v>24</v>
       </c>
       <c r="D481" s="11" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E481" s="11">
         <v>3</v>
@@ -25987,7 +25984,7 @@
     </row>
     <row r="482" spans="1:28" ht="122.25" customHeight="1">
       <c r="A482" s="11" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B482" s="11">
         <v>10</v>
@@ -25996,16 +25993,16 @@
         <v>24</v>
       </c>
       <c r="D482" s="11" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E482" s="15">
         <v>1</v>
       </c>
       <c r="F482" s="15" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G482" s="15" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H482" s="11"/>
       <c r="I482" s="11"/>
@@ -26031,7 +26028,7 @@
     </row>
     <row r="483" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A483" s="11" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B483" s="11">
         <v>10</v>
@@ -26040,7 +26037,7 @@
         <v>28</v>
       </c>
       <c r="D483" s="11" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E483" s="11">
         <v>3</v>
@@ -26071,7 +26068,7 @@
     </row>
     <row r="484" spans="1:28" ht="122.25" customHeight="1">
       <c r="A484" s="11" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B484" s="11">
         <v>10</v>
@@ -26080,16 +26077,16 @@
         <v>31</v>
       </c>
       <c r="D484" s="11" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E484" s="12">
         <v>1</v>
       </c>
       <c r="F484" s="12" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G484" s="12" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H484" s="11"/>
       <c r="I484" s="11"/>
@@ -26115,7 +26112,7 @@
     </row>
     <row r="485" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A485" s="11" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B485" s="11">
         <v>10</v>
@@ -26124,7 +26121,7 @@
         <v>31</v>
       </c>
       <c r="D485" s="11" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E485" s="11">
         <v>3</v>
@@ -26155,7 +26152,7 @@
     </row>
     <row r="486" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A486" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B486" s="11">
         <v>10</v>
@@ -26164,7 +26161,7 @@
         <v>33</v>
       </c>
       <c r="D486" s="11" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E486" s="11">
         <v>3</v>
@@ -26195,7 +26192,7 @@
     </row>
     <row r="487" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A487" s="11" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B487" s="11">
         <v>10</v>
@@ -26204,7 +26201,7 @@
         <v>34</v>
       </c>
       <c r="D487" s="11" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E487" s="11">
         <v>3</v>
@@ -26235,7 +26232,7 @@
     </row>
     <row r="488" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A488" s="11" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B488" s="11">
         <v>10</v>
@@ -26244,7 +26241,7 @@
         <v>42</v>
       </c>
       <c r="D488" s="11" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E488" s="11">
         <v>3</v>
@@ -26275,7 +26272,7 @@
     </row>
     <row r="489" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A489" s="11" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B489" s="11">
         <v>10</v>
@@ -26284,7 +26281,7 @@
         <v>44</v>
       </c>
       <c r="D489" s="11" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E489" s="11">
         <v>3</v>
@@ -26315,7 +26312,7 @@
     </row>
     <row r="490" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A490" s="11" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B490" s="11">
         <v>10</v>
@@ -26324,7 +26321,7 @@
         <v>46</v>
       </c>
       <c r="D490" s="11" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E490" s="11">
         <v>3</v>
@@ -26355,7 +26352,7 @@
     </row>
     <row r="491" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A491" s="22" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B491" s="11">
         <v>10</v>
@@ -26364,7 +26361,7 @@
         <v>49</v>
       </c>
       <c r="D491" s="11" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E491" s="11"/>
       <c r="F491" s="11"/>
@@ -26393,7 +26390,7 @@
     </row>
     <row r="492" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A492" s="22" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B492" s="11">
         <v>10</v>
@@ -26402,7 +26399,7 @@
         <v>51</v>
       </c>
       <c r="D492" s="11" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E492" s="11"/>
       <c r="F492" s="11"/>
@@ -26431,7 +26428,7 @@
     </row>
     <row r="493" spans="1:28" ht="122.25" customHeight="1">
       <c r="A493" s="11" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B493" s="11">
         <v>10</v>
@@ -26440,16 +26437,16 @@
         <v>56</v>
       </c>
       <c r="D493" s="11" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E493" s="12">
         <v>1</v>
       </c>
       <c r="F493" s="12" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G493" s="12" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H493" s="11"/>
       <c r="I493" s="11"/>
@@ -26475,7 +26472,7 @@
     </row>
     <row r="494" spans="1:28" ht="122.25" customHeight="1">
       <c r="A494" s="11" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B494" s="11">
         <v>10</v>
@@ -26484,16 +26481,16 @@
         <v>58</v>
       </c>
       <c r="D494" s="11" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E494" s="12">
         <v>2</v>
       </c>
       <c r="F494" s="12" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G494" s="12" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H494" s="11"/>
       <c r="I494" s="11"/>
@@ -26519,7 +26516,7 @@
     </row>
     <row r="495" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A495" s="11" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B495" s="11">
         <v>10</v>
@@ -26528,7 +26525,7 @@
         <v>59</v>
       </c>
       <c r="D495" s="11" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E495" s="11">
         <v>3</v>
@@ -26559,7 +26556,7 @@
     </row>
     <row r="496" spans="1:28" ht="122.25" customHeight="1">
       <c r="A496" s="11" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B496" s="11">
         <v>10</v>
@@ -26568,16 +26565,16 @@
         <v>59</v>
       </c>
       <c r="D496" s="11" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E496" s="12">
         <v>1</v>
       </c>
       <c r="F496" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G496" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H496" s="11"/>
       <c r="I496" s="11"/>
@@ -26603,7 +26600,7 @@
     </row>
     <row r="497" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A497" s="11" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B497" s="11">
         <v>10</v>
@@ -26612,7 +26609,7 @@
         <v>69</v>
       </c>
       <c r="D497" s="11" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E497" s="11">
         <v>3</v>
@@ -26643,7 +26640,7 @@
     </row>
     <row r="498" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A498" s="11" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B498" s="11">
         <v>10</v>
@@ -26652,7 +26649,7 @@
         <v>70</v>
       </c>
       <c r="D498" s="11" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E498" s="11">
         <v>3</v>
@@ -26683,7 +26680,7 @@
     </row>
     <row r="499" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A499" s="22" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B499" s="11">
         <v>10</v>
@@ -26692,7 +26689,7 @@
         <v>73</v>
       </c>
       <c r="D499" s="11" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E499" s="11">
         <v>3</v>
@@ -26723,7 +26720,7 @@
     </row>
     <row r="500" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A500" s="22" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B500" s="11">
         <v>10</v>
@@ -26732,7 +26729,7 @@
         <v>74</v>
       </c>
       <c r="D500" s="11" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E500" s="11"/>
       <c r="F500" s="11"/>
@@ -26761,7 +26758,7 @@
     </row>
     <row r="501" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A501" s="22" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B501" s="11">
         <v>10</v>
@@ -26770,7 +26767,7 @@
         <v>74</v>
       </c>
       <c r="D501" s="11" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E501" s="11"/>
       <c r="F501" s="11"/>
@@ -26799,7 +26796,7 @@
     </row>
     <row r="502" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A502" s="22" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B502" s="11">
         <v>10</v>
@@ -26808,7 +26805,7 @@
         <v>74</v>
       </c>
       <c r="D502" s="11" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E502" s="11"/>
       <c r="F502" s="11"/>
@@ -26837,7 +26834,7 @@
     </row>
     <row r="503" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A503" s="22" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B503" s="11">
         <v>10</v>
@@ -26846,7 +26843,7 @@
         <v>75</v>
       </c>
       <c r="D503" s="11" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E503" s="11"/>
       <c r="F503" s="11"/>
@@ -26875,7 +26872,7 @@
     </row>
     <row r="504" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A504" s="22" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B504" s="11">
         <v>10</v>
@@ -26884,7 +26881,7 @@
         <v>75</v>
       </c>
       <c r="D504" s="11" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E504" s="11"/>
       <c r="F504" s="11"/>
@@ -26913,7 +26910,7 @@
     </row>
     <row r="505" spans="1:28" ht="122.25" customHeight="1">
       <c r="A505" s="11" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B505" s="11">
         <v>10</v>
@@ -26922,16 +26919,16 @@
         <v>77</v>
       </c>
       <c r="D505" s="11" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E505" s="15">
         <v>1</v>
       </c>
       <c r="F505" s="15" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G505" s="15" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H505" s="11"/>
       <c r="I505" s="11"/>
@@ -26957,7 +26954,7 @@
     </row>
     <row r="506" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A506" s="11" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B506" s="11">
         <v>10</v>
@@ -26966,7 +26963,7 @@
         <v>79</v>
       </c>
       <c r="D506" s="11" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E506" s="11">
         <v>3</v>
@@ -26997,7 +26994,7 @@
     </row>
     <row r="507" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A507" s="11" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B507" s="11">
         <v>10</v>
@@ -27006,7 +27003,7 @@
         <v>80</v>
       </c>
       <c r="D507" s="11" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E507" s="11">
         <v>3</v>
@@ -27037,7 +27034,7 @@
     </row>
     <row r="508" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A508" s="11" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B508" s="11">
         <v>10</v>
@@ -27046,7 +27043,7 @@
         <v>81</v>
       </c>
       <c r="D508" s="11" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E508" s="11">
         <v>3</v>
@@ -27077,7 +27074,7 @@
     </row>
     <row r="509" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A509" s="11" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B509" s="11">
         <v>10</v>
@@ -27086,7 +27083,7 @@
         <v>86</v>
       </c>
       <c r="D509" s="11" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E509" s="11">
         <v>3</v>
@@ -27117,7 +27114,7 @@
     </row>
     <row r="510" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A510" s="22" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B510" s="11">
         <v>10</v>
@@ -27126,7 +27123,7 @@
         <v>94</v>
       </c>
       <c r="D510" s="11" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E510" s="11"/>
       <c r="F510" s="11"/>
@@ -27155,7 +27152,7 @@
     </row>
     <row r="511" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A511" s="22" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B511" s="11">
         <v>11</v>
@@ -27164,7 +27161,7 @@
         <v>22</v>
       </c>
       <c r="D511" s="11" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E511" s="11"/>
       <c r="F511" s="11"/>
@@ -27193,7 +27190,7 @@
     </row>
     <row r="512" spans="1:28" ht="122.25" customHeight="1">
       <c r="A512" s="11" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B512" s="11">
         <v>11</v>
@@ -27202,16 +27199,16 @@
         <v>24</v>
       </c>
       <c r="D512" s="11" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E512" s="12">
         <v>2</v>
       </c>
       <c r="F512" s="12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G512" s="12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H512" s="11"/>
       <c r="I512" s="11"/>
@@ -27237,7 +27234,7 @@
     </row>
     <row r="513" spans="1:28" ht="122.25" customHeight="1">
       <c r="A513" s="11" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B513" s="11">
         <v>11</v>
@@ -27246,16 +27243,16 @@
         <v>25</v>
       </c>
       <c r="D513" s="11" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E513" s="12">
         <v>2</v>
       </c>
       <c r="F513" s="12" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G513" s="12" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H513" s="11"/>
       <c r="I513" s="11"/>
@@ -27281,7 +27278,7 @@
     </row>
     <row r="514" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A514" s="11" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B514" s="11">
         <v>11</v>
@@ -27290,7 +27287,7 @@
         <v>25</v>
       </c>
       <c r="D514" s="11" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E514" s="11">
         <v>3</v>
@@ -27321,7 +27318,7 @@
     </row>
     <row r="515" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A515" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B515" s="11">
         <v>11</v>
@@ -27330,7 +27327,7 @@
         <v>25</v>
       </c>
       <c r="D515" s="11" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E515" s="11">
         <v>3</v>
@@ -27361,7 +27358,7 @@
     </row>
     <row r="516" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A516" s="11" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B516" s="11">
         <v>11</v>
@@ -27370,7 +27367,7 @@
         <v>25</v>
       </c>
       <c r="D516" s="11" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E516" s="11">
         <v>3</v>
@@ -27401,7 +27398,7 @@
     </row>
     <row r="517" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A517" s="22" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B517" s="11">
         <v>11</v>
@@ -27410,7 +27407,7 @@
         <v>27</v>
       </c>
       <c r="D517" s="11" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E517" s="11"/>
       <c r="F517" s="11"/>
@@ -27439,7 +27436,7 @@
     </row>
     <row r="518" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A518" s="11" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B518" s="11">
         <v>11</v>
@@ -27448,7 +27445,7 @@
         <v>28</v>
       </c>
       <c r="D518" s="11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E518" s="11">
         <v>3</v>
@@ -27479,7 +27476,7 @@
     </row>
     <row r="519" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A519" s="22" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B519" s="11">
         <v>11</v>
@@ -27488,7 +27485,7 @@
         <v>31</v>
       </c>
       <c r="D519" s="11" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E519" s="11"/>
       <c r="F519" s="11"/>
@@ -27517,7 +27514,7 @@
     </row>
     <row r="520" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A520" s="11" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B520" s="11">
         <v>11</v>
@@ -27526,7 +27523,7 @@
         <v>36</v>
       </c>
       <c r="D520" s="11" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E520" s="11">
         <v>3</v>
@@ -27557,7 +27554,7 @@
     </row>
     <row r="521" spans="1:28" ht="122.25" customHeight="1">
       <c r="A521" s="11" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B521" s="11">
         <v>11</v>
@@ -27566,16 +27563,16 @@
         <v>37</v>
       </c>
       <c r="D521" s="11" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E521" s="12">
         <v>2</v>
       </c>
       <c r="F521" s="12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="G521" s="12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H521" s="11"/>
       <c r="I521" s="11"/>
@@ -27601,7 +27598,7 @@
     </row>
     <row r="522" spans="1:28" ht="122.25" customHeight="1">
       <c r="A522" s="11" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B522" s="11">
         <v>11</v>
@@ -27610,16 +27607,16 @@
         <v>38</v>
       </c>
       <c r="D522" s="11" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E522" s="12">
         <v>2</v>
       </c>
       <c r="F522" s="12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G522" s="12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H522" s="11"/>
       <c r="I522" s="11"/>
@@ -27645,7 +27642,7 @@
     </row>
     <row r="523" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A523" s="11" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B523" s="11">
         <v>11</v>
@@ -27654,7 +27651,7 @@
         <v>38</v>
       </c>
       <c r="D523" s="11" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E523" s="11">
         <v>3</v>
@@ -27685,7 +27682,7 @@
     </row>
     <row r="524" spans="1:28" ht="122.25" customHeight="1">
       <c r="A524" s="11" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B524" s="11">
         <v>11</v>
@@ -27694,16 +27691,16 @@
         <v>39</v>
       </c>
       <c r="D524" s="11" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E524" s="12">
         <v>2</v>
       </c>
       <c r="F524" s="12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G524" s="12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H524" s="11"/>
       <c r="I524" s="11"/>
@@ -27729,7 +27726,7 @@
     </row>
     <row r="525" spans="1:28" ht="122.25" customHeight="1">
       <c r="A525" s="11" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B525" s="11">
         <v>11</v>
@@ -27738,16 +27735,16 @@
         <v>39</v>
       </c>
       <c r="D525" s="11" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E525" s="12">
         <v>2</v>
       </c>
       <c r="F525" s="12" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G525" s="12" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H525" s="11"/>
       <c r="I525" s="11"/>
@@ -27773,7 +27770,7 @@
     </row>
     <row r="526" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A526" s="11" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B526" s="11">
         <v>11</v>
@@ -27782,7 +27779,7 @@
         <v>40</v>
       </c>
       <c r="D526" s="11" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E526" s="11">
         <v>3</v>
@@ -27813,7 +27810,7 @@
     </row>
     <row r="527" spans="1:28" ht="122.25" customHeight="1">
       <c r="A527" s="11" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B527" s="11">
         <v>11</v>
@@ -27822,16 +27819,16 @@
         <v>40</v>
       </c>
       <c r="D527" s="11" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E527" s="12">
         <v>2</v>
       </c>
       <c r="F527" s="12" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="G527" s="12" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H527" s="11"/>
       <c r="I527" s="11"/>
@@ -27857,7 +27854,7 @@
     </row>
     <row r="528" spans="1:28" ht="122.25" customHeight="1">
       <c r="A528" s="11" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B528" s="11">
         <v>11</v>
@@ -27866,16 +27863,16 @@
         <v>40</v>
       </c>
       <c r="D528" s="11" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E528" s="12">
         <v>2</v>
       </c>
       <c r="F528" s="12" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G528" s="12" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H528" s="11"/>
       <c r="I528" s="11"/>
@@ -27901,7 +27898,7 @@
     </row>
     <row r="529" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A529" s="11" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B529" s="11">
         <v>11</v>
@@ -27910,7 +27907,7 @@
         <v>41</v>
       </c>
       <c r="D529" s="11" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E529" s="11">
         <v>3</v>
@@ -27941,7 +27938,7 @@
     </row>
     <row r="530" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A530" s="11" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B530" s="11">
         <v>11</v>
@@ -27950,7 +27947,7 @@
         <v>42</v>
       </c>
       <c r="D530" s="11" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E530" s="11">
         <v>3</v>
@@ -27981,7 +27978,7 @@
     </row>
     <row r="531" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A531" s="11" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B531" s="11">
         <v>11</v>
@@ -27990,7 +27987,7 @@
         <v>43</v>
       </c>
       <c r="D531" s="11" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E531" s="11">
         <v>3</v>
@@ -28021,7 +28018,7 @@
     </row>
     <row r="532" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A532" s="11" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B532" s="11">
         <v>11</v>
@@ -28030,7 +28027,7 @@
         <v>44</v>
       </c>
       <c r="D532" s="11" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E532" s="11">
         <v>3</v>
@@ -28061,7 +28058,7 @@
     </row>
     <row r="533" spans="1:28" ht="122.25" customHeight="1">
       <c r="A533" s="11" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B533" s="11">
         <v>11</v>
@@ -28070,16 +28067,16 @@
         <v>44</v>
       </c>
       <c r="D533" s="11" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E533" s="12">
         <v>1</v>
       </c>
       <c r="F533" s="12" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G533" s="12" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H533" s="11"/>
       <c r="I533" s="11"/>
@@ -28105,7 +28102,7 @@
     </row>
     <row r="534" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A534" s="11" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B534" s="11">
         <v>11</v>
@@ -28114,7 +28111,7 @@
         <v>46</v>
       </c>
       <c r="D534" s="11" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E534" s="11">
         <v>3</v>
@@ -28145,7 +28142,7 @@
     </row>
     <row r="535" spans="1:28" ht="122.25" customHeight="1">
       <c r="A535" s="11" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B535" s="11">
         <v>11</v>
@@ -28154,16 +28151,16 @@
         <v>47</v>
       </c>
       <c r="D535" s="11" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E535" s="12">
         <v>1</v>
       </c>
       <c r="F535" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G535" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H535" s="11"/>
       <c r="I535" s="11"/>
@@ -28189,7 +28186,7 @@
     </row>
     <row r="536" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A536" s="11" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B536" s="11">
         <v>11</v>
@@ -28198,7 +28195,7 @@
         <v>49</v>
       </c>
       <c r="D536" s="11" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E536" s="11">
         <v>3</v>
@@ -28229,7 +28226,7 @@
     </row>
     <row r="537" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A537" s="11" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B537" s="11">
         <v>11</v>
@@ -28238,7 +28235,7 @@
         <v>50</v>
       </c>
       <c r="D537" s="11" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E537" s="11">
         <v>3</v>
@@ -28269,7 +28266,7 @@
     </row>
     <row r="538" spans="1:28" ht="122.25" customHeight="1">
       <c r="A538" s="11" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B538" s="11">
         <v>11</v>
@@ -28278,16 +28275,16 @@
         <v>50</v>
       </c>
       <c r="D538" s="11" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E538" s="15">
         <v>2</v>
       </c>
       <c r="F538" s="15" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G538" s="15" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H538" s="11"/>
       <c r="I538" s="11"/>
@@ -28313,7 +28310,7 @@
     </row>
     <row r="539" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A539" s="11" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B539" s="11">
         <v>11</v>
@@ -28322,7 +28319,7 @@
         <v>51</v>
       </c>
       <c r="D539" s="11" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E539" s="11">
         <v>3</v>
@@ -28353,7 +28350,7 @@
     </row>
     <row r="540" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A540" s="11" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B540" s="11">
         <v>11</v>
@@ -28362,7 +28359,7 @@
         <v>51</v>
       </c>
       <c r="D540" s="11" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E540" s="11">
         <v>3</v>
@@ -28393,7 +28390,7 @@
     </row>
     <row r="541" spans="1:28" ht="122.25" customHeight="1">
       <c r="A541" s="11" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B541" s="11">
         <v>11</v>
@@ -28402,16 +28399,16 @@
         <v>52</v>
       </c>
       <c r="D541" s="11" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E541" s="15">
         <v>2</v>
       </c>
       <c r="F541" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G541" s="15" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H541" s="11"/>
       <c r="I541" s="11"/>
@@ -28437,7 +28434,7 @@
     </row>
     <row r="542" spans="1:28" ht="122.25" customHeight="1">
       <c r="A542" s="11" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B542" s="11">
         <v>11</v>
@@ -28446,16 +28443,16 @@
         <v>53</v>
       </c>
       <c r="D542" s="11" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E542" s="12">
         <v>2</v>
       </c>
       <c r="F542" s="12" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="G542" s="12" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H542" s="11"/>
       <c r="I542" s="11"/>
@@ -28481,7 +28478,7 @@
     </row>
     <row r="543" spans="1:28" ht="122.25" customHeight="1">
       <c r="A543" s="11" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B543" s="11">
         <v>11</v>
@@ -28490,16 +28487,16 @@
         <v>55</v>
       </c>
       <c r="D543" s="11" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E543" s="12">
         <v>2</v>
       </c>
       <c r="F543" s="12" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G543" s="12" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H543" s="11"/>
       <c r="I543" s="11"/>
@@ -28525,7 +28522,7 @@
     </row>
     <row r="544" spans="1:28" ht="122.25" customHeight="1">
       <c r="A544" s="11" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B544" s="11">
         <v>11</v>
@@ -28534,16 +28531,16 @@
         <v>58</v>
       </c>
       <c r="D544" s="11" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E544" s="15">
         <v>2</v>
       </c>
       <c r="F544" s="12" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G544" s="12" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H544" s="11"/>
       <c r="I544" s="11"/>
@@ -28569,7 +28566,7 @@
     </row>
     <row r="545" spans="1:28" ht="122.25" customHeight="1">
       <c r="A545" s="11" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B545" s="11">
         <v>11</v>
@@ -28578,16 +28575,16 @@
         <v>58</v>
       </c>
       <c r="D545" s="11" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E545" s="15">
         <v>2</v>
       </c>
       <c r="F545" s="15" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="G545" s="15" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H545" s="11"/>
       <c r="I545" s="11"/>
@@ -28613,7 +28610,7 @@
     </row>
     <row r="546" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A546" s="11" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B546" s="11">
         <v>11</v>
@@ -28622,7 +28619,7 @@
         <v>59</v>
       </c>
       <c r="D546" s="11" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E546" s="11">
         <v>3</v>
@@ -28653,7 +28650,7 @@
     </row>
     <row r="547" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A547" s="11" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B547" s="11">
         <v>11</v>
@@ -28662,7 +28659,7 @@
         <v>60</v>
       </c>
       <c r="D547" s="11" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E547" s="11">
         <v>3</v>
@@ -28693,7 +28690,7 @@
     </row>
     <row r="548" spans="1:28" ht="122.25" customHeight="1">
       <c r="A548" s="11" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B548" s="11">
         <v>11</v>
@@ -28702,16 +28699,16 @@
         <v>60</v>
       </c>
       <c r="D548" s="11" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E548" s="12">
         <v>1</v>
       </c>
       <c r="F548" s="12" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G548" s="12" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H548" s="11"/>
       <c r="I548" s="11"/>
@@ -28737,7 +28734,7 @@
     </row>
     <row r="549" spans="1:28" ht="122.25" customHeight="1">
       <c r="A549" s="11" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B549" s="11">
         <v>11</v>
@@ -28746,16 +28743,16 @@
         <v>60</v>
       </c>
       <c r="D549" s="11" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E549" s="12">
         <v>1</v>
       </c>
       <c r="F549" s="12" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G549" s="12" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H549" s="11"/>
       <c r="I549" s="11"/>
@@ -28781,7 +28778,7 @@
     </row>
     <row r="550" spans="1:28" ht="122.25" customHeight="1">
       <c r="A550" s="11" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B550" s="11">
         <v>11</v>
@@ -28790,16 +28787,16 @@
         <v>60</v>
       </c>
       <c r="D550" s="11" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E550" s="15">
         <v>2</v>
       </c>
       <c r="F550" s="15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G550" s="15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H550" s="11"/>
       <c r="I550" s="11"/>
@@ -28825,7 +28822,7 @@
     </row>
     <row r="551" spans="1:28" ht="122.25" customHeight="1">
       <c r="A551" s="11" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B551" s="11">
         <v>11</v>
@@ -28834,16 +28831,16 @@
         <v>60</v>
       </c>
       <c r="D551" s="11" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E551" s="12">
         <v>1</v>
       </c>
       <c r="F551" s="12" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G551" s="12" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H551" s="11"/>
       <c r="I551" s="11"/>
@@ -28869,7 +28866,7 @@
     </row>
     <row r="552" spans="1:28" ht="122.25" customHeight="1">
       <c r="A552" s="11" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B552" s="11">
         <v>11</v>
@@ -28878,16 +28875,16 @@
         <v>61</v>
       </c>
       <c r="D552" s="11" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E552" s="12">
         <v>1</v>
       </c>
       <c r="F552" s="12" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G552" s="12" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H552" s="11"/>
       <c r="I552" s="11"/>
@@ -28913,7 +28910,7 @@
     </row>
     <row r="553" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A553" s="11" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B553" s="11">
         <v>11</v>
@@ -28922,7 +28919,7 @@
         <v>62</v>
       </c>
       <c r="D553" s="11" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E553" s="11">
         <v>3</v>
@@ -28953,7 +28950,7 @@
     </row>
     <row r="554" spans="1:28" ht="122.25" customHeight="1">
       <c r="A554" s="19" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B554" s="11">
         <v>11</v>
@@ -28962,16 +28959,16 @@
         <v>62</v>
       </c>
       <c r="D554" s="11" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E554" s="15">
         <v>2</v>
       </c>
       <c r="F554" s="15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G554" s="15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H554" s="11"/>
       <c r="I554" s="11"/>
@@ -28997,7 +28994,7 @@
     </row>
     <row r="555" spans="1:28" ht="122.25" customHeight="1">
       <c r="A555" s="11" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B555" s="11">
         <v>11</v>
@@ -29006,16 +29003,16 @@
         <v>63</v>
       </c>
       <c r="D555" s="11" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E555" s="15">
         <v>2</v>
       </c>
       <c r="F555" s="15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G555" s="15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H555" s="11"/>
       <c r="I555" s="11"/>
@@ -29041,7 +29038,7 @@
     </row>
     <row r="556" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A556" s="11" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B556" s="11">
         <v>11</v>
@@ -29050,7 +29047,7 @@
         <v>63</v>
       </c>
       <c r="D556" s="11" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E556" s="11">
         <v>3</v>
@@ -29081,7 +29078,7 @@
     </row>
     <row r="557" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A557" s="11" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B557" s="11">
         <v>11</v>
@@ -29090,7 +29087,7 @@
         <v>64</v>
       </c>
       <c r="D557" s="11" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E557" s="11">
         <v>3</v>
@@ -29121,7 +29118,7 @@
     </row>
     <row r="558" spans="1:28" ht="122.25" customHeight="1">
       <c r="A558" s="11" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B558" s="11">
         <v>11</v>
@@ -29130,16 +29127,16 @@
         <v>64</v>
       </c>
       <c r="D558" s="11" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E558" s="15">
         <v>2</v>
       </c>
       <c r="F558" s="15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G558" s="15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H558" s="11"/>
       <c r="I558" s="11"/>
@@ -29165,7 +29162,7 @@
     </row>
     <row r="559" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A559" s="11" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B559" s="11">
         <v>11</v>
@@ -29174,7 +29171,7 @@
         <v>66</v>
       </c>
       <c r="D559" s="11" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E559" s="11">
         <v>3</v>
@@ -29205,7 +29202,7 @@
     </row>
     <row r="560" spans="1:28" ht="122.25" customHeight="1">
       <c r="A560" s="11" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B560" s="11">
         <v>11</v>
@@ -29214,16 +29211,16 @@
         <v>66</v>
       </c>
       <c r="D560" s="11" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E560" s="15">
         <v>2</v>
       </c>
       <c r="F560" s="15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G560" s="15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H560" s="11"/>
       <c r="I560" s="11"/>
@@ -29249,7 +29246,7 @@
     </row>
     <row r="561" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A561" s="11" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B561" s="11">
         <v>11</v>
@@ -29258,7 +29255,7 @@
         <v>70</v>
       </c>
       <c r="D561" s="11" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E561" s="11">
         <v>3</v>
@@ -29289,7 +29286,7 @@
     </row>
     <row r="562" spans="1:28" ht="122.25" customHeight="1">
       <c r="A562" s="11" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B562" s="11">
         <v>11</v>
@@ -29298,16 +29295,16 @@
         <v>70</v>
       </c>
       <c r="D562" s="11" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E562" s="15">
         <v>2</v>
       </c>
       <c r="F562" s="15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G562" s="15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H562" s="11"/>
       <c r="I562" s="11"/>
@@ -29333,7 +29330,7 @@
     </row>
     <row r="563" spans="1:28" ht="122.25" customHeight="1">
       <c r="A563" s="11" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B563" s="11">
         <v>11</v>
@@ -29342,16 +29339,16 @@
         <v>70</v>
       </c>
       <c r="D563" s="11" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E563" s="15">
         <v>2</v>
       </c>
       <c r="F563" s="15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G563" s="15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H563" s="11"/>
       <c r="I563" s="11"/>
@@ -29377,7 +29374,7 @@
     </row>
     <row r="564" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A564" s="11" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B564" s="11">
         <v>11</v>
@@ -29386,7 +29383,7 @@
         <v>71</v>
       </c>
       <c r="D564" s="11" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E564" s="11">
         <v>3</v>
@@ -29417,7 +29414,7 @@
     </row>
     <row r="565" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A565" s="11" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B565" s="11">
         <v>11</v>
@@ -29426,7 +29423,7 @@
         <v>73</v>
       </c>
       <c r="D565" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E565" s="11">
         <v>3</v>
@@ -29457,7 +29454,7 @@
     </row>
     <row r="566" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A566" s="11" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B566" s="11">
         <v>11</v>
@@ -29466,7 +29463,7 @@
         <v>76</v>
       </c>
       <c r="D566" s="11" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E566" s="11">
         <v>3</v>
@@ -29497,7 +29494,7 @@
     </row>
     <row r="567" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A567" s="11" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B567" s="11">
         <v>11</v>
@@ -29506,7 +29503,7 @@
         <v>76</v>
       </c>
       <c r="D567" s="11" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E567" s="11">
         <v>3</v>
@@ -29537,7 +29534,7 @@
     </row>
     <row r="568" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A568" s="11" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B568" s="11">
         <v>11</v>
@@ -29546,7 +29543,7 @@
         <v>78</v>
       </c>
       <c r="D568" s="11" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E568" s="11">
         <v>3</v>
@@ -29577,7 +29574,7 @@
     </row>
     <row r="569" spans="1:28" ht="122.25" customHeight="1">
       <c r="A569" s="11" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B569" s="11">
         <v>11</v>
@@ -29586,16 +29583,16 @@
         <v>78</v>
       </c>
       <c r="D569" s="11" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E569" s="15">
         <v>2</v>
       </c>
       <c r="F569" s="15" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G569" s="15" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H569" s="11"/>
       <c r="I569" s="11"/>
@@ -29621,7 +29618,7 @@
     </row>
     <row r="570" spans="1:28" ht="122.25" customHeight="1">
       <c r="A570" s="11" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B570" s="11">
         <v>11</v>
@@ -29630,16 +29627,16 @@
         <v>79</v>
       </c>
       <c r="D570" s="11" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E570" s="15">
         <v>2</v>
       </c>
       <c r="F570" s="15" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G570" s="15" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H570" s="11"/>
       <c r="I570" s="11"/>
@@ -29665,7 +29662,7 @@
     </row>
     <row r="571" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A571" s="11" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B571" s="11">
         <v>11</v>
@@ -29674,7 +29671,7 @@
         <v>79</v>
       </c>
       <c r="D571" s="11" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E571" s="11">
         <v>3</v>
@@ -29705,7 +29702,7 @@
     </row>
     <row r="572" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A572" s="11" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B572" s="11">
         <v>11</v>
@@ -29714,7 +29711,7 @@
         <v>79</v>
       </c>
       <c r="D572" s="11" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E572" s="11">
         <v>3</v>
@@ -29745,7 +29742,7 @@
     </row>
     <row r="573" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A573" s="11" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B573" s="11">
         <v>11</v>
@@ -29754,7 +29751,7 @@
         <v>80</v>
       </c>
       <c r="D573" s="11" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E573" s="11">
         <v>3</v>
@@ -29785,7 +29782,7 @@
     </row>
     <row r="574" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A574" s="11" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B574" s="11">
         <v>11</v>
@@ -29794,7 +29791,7 @@
         <v>83</v>
       </c>
       <c r="D574" s="11" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E574" s="11">
         <v>3</v>
@@ -29825,7 +29822,7 @@
     </row>
     <row r="575" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A575" s="11" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B575" s="11">
         <v>11</v>
@@ -29834,7 +29831,7 @@
         <v>83</v>
       </c>
       <c r="D575" s="11" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E575" s="11">
         <v>3</v>
@@ -29865,7 +29862,7 @@
     </row>
     <row r="576" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A576" s="11" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B576" s="11">
         <v>11</v>
@@ -29874,7 +29871,7 @@
         <v>83</v>
       </c>
       <c r="D576" s="11" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E576" s="11">
         <v>3</v>
@@ -29905,7 +29902,7 @@
     </row>
     <row r="577" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A577" s="11" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B577" s="11">
         <v>11</v>
@@ -29914,7 +29911,7 @@
         <v>86</v>
       </c>
       <c r="D577" s="11" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E577" s="11">
         <v>3</v>
@@ -29945,7 +29942,7 @@
     </row>
     <row r="578" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A578" s="11" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B578" s="11">
         <v>11</v>
@@ -29954,7 +29951,7 @@
         <v>93</v>
       </c>
       <c r="D578" s="11" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E578" s="11">
         <v>3</v>
@@ -29985,7 +29982,7 @@
     </row>
     <row r="579" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A579" s="11" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B579" s="11">
         <v>11</v>
@@ -29994,7 +29991,7 @@
         <v>93</v>
       </c>
       <c r="D579" s="11" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E579" s="11">
         <v>3</v>
@@ -30025,7 +30022,7 @@
     </row>
     <row r="580" spans="1:28" ht="122.25" customHeight="1">
       <c r="A580" s="11" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B580" s="11">
         <v>11</v>
@@ -30034,16 +30031,16 @@
         <v>93</v>
       </c>
       <c r="D580" s="11" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E580" s="15">
         <v>2</v>
       </c>
       <c r="F580" s="15" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G580" s="15" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H580" s="11"/>
       <c r="I580" s="11"/>
@@ -30069,7 +30066,7 @@
     </row>
     <row r="581" spans="1:28" ht="122.25" customHeight="1">
       <c r="A581" s="11" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B581" s="11">
         <v>11</v>
@@ -30078,16 +30075,16 @@
         <v>94</v>
       </c>
       <c r="D581" s="11" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E581" s="15">
         <v>2</v>
       </c>
       <c r="F581" s="15" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G581" s="15" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H581" s="11"/>
       <c r="I581" s="11"/>
@@ -30113,7 +30110,7 @@
     </row>
     <row r="582" spans="1:28" ht="122.25" customHeight="1">
       <c r="A582" s="11" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B582" s="11">
         <v>12</v>
@@ -30122,16 +30119,16 @@
         <v>7</v>
       </c>
       <c r="D582" s="11" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E582" s="12">
         <v>2</v>
       </c>
       <c r="F582" s="12" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G582" s="12" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H582" s="11"/>
       <c r="I582" s="11"/>
@@ -30157,7 +30154,7 @@
     </row>
     <row r="583" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A583" s="11" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B583" s="11">
         <v>12</v>
@@ -30166,7 +30163,7 @@
         <v>7</v>
       </c>
       <c r="D583" s="11" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E583" s="11">
         <v>3</v>
@@ -30197,7 +30194,7 @@
     </row>
     <row r="584" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A584" s="11" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B584" s="11">
         <v>12</v>
@@ -30206,7 +30203,7 @@
         <v>8</v>
       </c>
       <c r="D584" s="11" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E584" s="11">
         <v>3</v>
@@ -30237,7 +30234,7 @@
     </row>
     <row r="585" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A585" s="11" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B585" s="11">
         <v>12</v>
@@ -30246,7 +30243,7 @@
         <v>8</v>
       </c>
       <c r="D585" s="11" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E585" s="11">
         <v>3</v>
@@ -30277,7 +30274,7 @@
     </row>
     <row r="586" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A586" s="19" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B586" s="11">
         <v>12</v>
@@ -30286,7 +30283,7 @@
         <v>8</v>
       </c>
       <c r="D586" s="11" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E586" s="11">
         <v>3</v>
@@ -30317,7 +30314,7 @@
     </row>
     <row r="587" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A587" s="11" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B587" s="11">
         <v>12</v>
@@ -30326,7 +30323,7 @@
         <v>8</v>
       </c>
       <c r="D587" s="11" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E587" s="11">
         <v>3</v>
@@ -30357,7 +30354,7 @@
     </row>
     <row r="588" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A588" s="11" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B588" s="11">
         <v>12</v>
@@ -30366,7 +30363,7 @@
         <v>8</v>
       </c>
       <c r="D588" s="11" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E588" s="11">
         <v>3</v>
@@ -30397,7 +30394,7 @@
     </row>
     <row r="589" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A589" s="11" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B589" s="11">
         <v>12</v>
@@ -30406,7 +30403,7 @@
         <v>9</v>
       </c>
       <c r="D589" s="11" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E589" s="11">
         <v>3</v>
@@ -30437,7 +30434,7 @@
     </row>
     <row r="590" spans="1:28" ht="122.25" customHeight="1">
       <c r="A590" s="11" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B590" s="11">
         <v>12</v>
@@ -30446,16 +30443,16 @@
         <v>11</v>
       </c>
       <c r="D590" s="11" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E590" s="12">
         <v>2</v>
       </c>
       <c r="F590" s="12" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G590" s="12" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H590" s="11"/>
       <c r="I590" s="11"/>
@@ -30481,7 +30478,7 @@
     </row>
     <row r="591" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A591" s="11" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B591" s="11">
         <v>12</v>
@@ -30490,7 +30487,7 @@
         <v>11</v>
       </c>
       <c r="D591" s="11" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E591" s="11">
         <v>3</v>
@@ -30521,7 +30518,7 @@
     </row>
     <row r="592" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A592" s="11" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B592" s="11">
         <v>12</v>
@@ -30530,7 +30527,7 @@
         <v>11</v>
       </c>
       <c r="D592" s="11" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E592" s="11">
         <v>3</v>
@@ -30561,7 +30558,7 @@
     </row>
     <row r="593" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A593" s="11" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B593" s="11">
         <v>12</v>
@@ -30570,7 +30567,7 @@
         <v>14</v>
       </c>
       <c r="D593" s="11" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E593" s="11">
         <v>3</v>
@@ -30601,7 +30598,7 @@
     </row>
     <row r="594" spans="1:28" ht="122.25" customHeight="1">
       <c r="A594" s="11" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B594" s="11">
         <v>12</v>
@@ -30610,16 +30607,16 @@
         <v>14</v>
       </c>
       <c r="D594" s="11" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E594" s="12">
         <v>1</v>
       </c>
       <c r="F594" s="12" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G594" s="12" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H594" s="11"/>
       <c r="I594" s="11"/>
@@ -30645,7 +30642,7 @@
     </row>
     <row r="595" spans="1:28" ht="122.25" customHeight="1">
       <c r="A595" s="11" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B595" s="11">
         <v>12</v>
@@ -30654,16 +30651,16 @@
         <v>14</v>
       </c>
       <c r="D595" s="11" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E595" s="12">
         <v>2</v>
       </c>
       <c r="F595" s="12" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G595" s="12" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H595" s="11"/>
       <c r="I595" s="11"/>
@@ -30689,7 +30686,7 @@
     </row>
     <row r="596" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A596" s="11" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B596" s="11">
         <v>12</v>
@@ -30698,7 +30695,7 @@
         <v>14</v>
       </c>
       <c r="D596" s="11" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E596" s="11">
         <v>3</v>
@@ -30729,7 +30726,7 @@
     </row>
     <row r="597" spans="1:28" ht="122.25" customHeight="1">
       <c r="A597" s="11" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B597" s="11">
         <v>12</v>
@@ -30738,16 +30735,16 @@
         <v>15</v>
       </c>
       <c r="D597" s="11" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E597" s="12">
         <v>2</v>
       </c>
       <c r="F597" s="12" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G597" s="12" t="s">
         <v>1429</v>
-      </c>
-      <c r="G597" s="12" t="s">
-        <v>1430</v>
       </c>
       <c r="H597" s="11"/>
       <c r="I597" s="11"/>
@@ -30773,7 +30770,7 @@
     </row>
     <row r="598" spans="1:28" ht="122.25" customHeight="1">
       <c r="A598" s="11" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B598" s="11">
         <v>12</v>
@@ -30782,16 +30779,16 @@
         <v>17</v>
       </c>
       <c r="D598" s="11" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E598" s="12">
         <v>2</v>
       </c>
       <c r="F598" s="12" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G598" s="12" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H598" s="11"/>
       <c r="I598" s="11"/>
@@ -30817,7 +30814,7 @@
     </row>
     <row r="599" spans="1:28" ht="122.25" customHeight="1">
       <c r="A599" s="11" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B599" s="11">
         <v>12</v>
@@ -30826,16 +30823,16 @@
         <v>17</v>
       </c>
       <c r="D599" s="11" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E599" s="15">
         <v>2</v>
       </c>
       <c r="F599" s="15" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G599" s="15" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H599" s="11"/>
       <c r="I599" s="11"/>
@@ -30861,7 +30858,7 @@
     </row>
     <row r="600" spans="1:28" ht="122.25" customHeight="1">
       <c r="A600" s="11" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B600" s="11">
         <v>12</v>
@@ -30870,16 +30867,16 @@
         <v>17</v>
       </c>
       <c r="D600" s="11" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E600" s="15">
         <v>2</v>
       </c>
       <c r="F600" s="15" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G600" s="15" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H600" s="11"/>
       <c r="I600" s="11"/>
@@ -30905,7 +30902,7 @@
     </row>
     <row r="601" spans="1:28" ht="122.25" customHeight="1">
       <c r="A601" s="11" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B601" s="11">
         <v>12</v>
@@ -30914,16 +30911,16 @@
         <v>17</v>
       </c>
       <c r="D601" s="11" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E601" s="12">
         <v>2</v>
       </c>
       <c r="F601" s="12" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G601" s="12" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H601" s="11"/>
       <c r="I601" s="11"/>
@@ -30949,7 +30946,7 @@
     </row>
     <row r="602" spans="1:28" ht="122.25" customHeight="1">
       <c r="A602" s="11" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B602" s="11">
         <v>12</v>
@@ -30958,16 +30955,16 @@
         <v>17</v>
       </c>
       <c r="D602" s="11" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E602" s="12">
         <v>2</v>
       </c>
       <c r="F602" s="12" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G602" s="12" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H602" s="11"/>
       <c r="I602" s="11"/>
@@ -30993,7 +30990,7 @@
     </row>
     <row r="603" spans="1:28" ht="122.25" customHeight="1">
       <c r="A603" s="11" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B603" s="11">
         <v>12</v>
@@ -31002,16 +30999,16 @@
         <v>18</v>
       </c>
       <c r="D603" s="11" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E603" s="12">
         <v>1</v>
       </c>
       <c r="F603" s="12" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G603" s="12" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H603" s="11"/>
       <c r="I603" s="11"/>
@@ -31037,7 +31034,7 @@
     </row>
     <row r="604" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A604" s="11" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B604" s="11">
         <v>12</v>
@@ -31046,7 +31043,7 @@
         <v>18</v>
       </c>
       <c r="D604" s="11" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E604" s="11">
         <v>3</v>
@@ -31077,7 +31074,7 @@
     </row>
     <row r="605" spans="1:28" ht="122.25" customHeight="1">
       <c r="A605" s="11" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B605" s="11">
         <v>12</v>
@@ -31086,16 +31083,16 @@
         <v>19</v>
       </c>
       <c r="D605" s="11" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E605" s="15">
         <v>2</v>
       </c>
       <c r="F605" s="15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G605" s="15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H605" s="11"/>
       <c r="I605" s="11"/>
@@ -31121,7 +31118,7 @@
     </row>
     <row r="606" spans="1:28" ht="122.25" customHeight="1">
       <c r="A606" s="11" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B606" s="11">
         <v>12</v>
@@ -31130,16 +31127,16 @@
         <v>20</v>
       </c>
       <c r="D606" s="11" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E606" s="15">
         <v>2</v>
       </c>
       <c r="F606" s="15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G606" s="15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H606" s="11"/>
       <c r="I606" s="11"/>
@@ -31165,7 +31162,7 @@
     </row>
     <row r="607" spans="1:28" ht="122.25" customHeight="1">
       <c r="A607" s="11" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B607" s="11">
         <v>12</v>
@@ -31174,16 +31171,16 @@
         <v>20</v>
       </c>
       <c r="D607" s="11" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E607" s="15">
         <v>2</v>
       </c>
       <c r="F607" s="15" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G607" s="15" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H607" s="11"/>
       <c r="I607" s="11"/>
@@ -31209,7 +31206,7 @@
     </row>
     <row r="608" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A608" s="11" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B608" s="11">
         <v>12</v>
@@ -31218,7 +31215,7 @@
         <v>21</v>
       </c>
       <c r="D608" s="11" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E608" s="11">
         <v>3</v>
@@ -31249,7 +31246,7 @@
     </row>
     <row r="609" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A609" s="11" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B609" s="11">
         <v>12</v>
@@ -31258,7 +31255,7 @@
         <v>21</v>
       </c>
       <c r="D609" s="11" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E609" s="11">
         <v>3</v>
@@ -31289,7 +31286,7 @@
     </row>
     <row r="610" spans="1:28" ht="122.25" customHeight="1">
       <c r="A610" s="11" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B610" s="11">
         <v>12</v>
@@ -31298,16 +31295,16 @@
         <v>22</v>
       </c>
       <c r="D610" s="11" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E610" s="12">
         <v>2</v>
       </c>
       <c r="F610" s="12" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G610" s="12" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H610" s="11"/>
       <c r="I610" s="11"/>
@@ -31333,7 +31330,7 @@
     </row>
     <row r="611" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A611" s="11" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B611" s="11">
         <v>12</v>
@@ -31342,7 +31339,7 @@
         <v>22</v>
       </c>
       <c r="D611" s="11" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E611" s="11">
         <v>3</v>
@@ -31373,7 +31370,7 @@
     </row>
     <row r="612" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A612" s="11" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B612" s="11">
         <v>12</v>
@@ -31382,7 +31379,7 @@
         <v>22</v>
       </c>
       <c r="D612" s="11" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E612" s="11">
         <v>3</v>
@@ -31413,7 +31410,7 @@
     </row>
     <row r="613" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A613" s="11" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B613" s="11">
         <v>12</v>
@@ -31422,7 +31419,7 @@
         <v>24</v>
       </c>
       <c r="D613" s="11" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E613" s="11">
         <v>3</v>
@@ -31453,7 +31450,7 @@
     </row>
     <row r="614" spans="1:28" ht="122.25" customHeight="1">
       <c r="A614" s="11" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B614" s="11">
         <v>12</v>
@@ -31462,16 +31459,16 @@
         <v>24</v>
       </c>
       <c r="D614" s="11" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E614" s="12">
         <v>2</v>
       </c>
       <c r="F614" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="G614" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H614" s="11"/>
       <c r="I614" s="11"/>
@@ -31497,7 +31494,7 @@
     </row>
     <row r="615" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A615" s="11" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B615" s="11">
         <v>12</v>
@@ -31506,7 +31503,7 @@
         <v>24</v>
       </c>
       <c r="D615" s="11" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E615" s="11">
         <v>3</v>
@@ -31537,7 +31534,7 @@
     </row>
     <row r="616" spans="1:28" ht="122.25" customHeight="1">
       <c r="A616" s="11" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B616" s="11">
         <v>12</v>
@@ -31546,16 +31543,16 @@
         <v>24</v>
       </c>
       <c r="D616" s="11" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E616" s="15">
         <v>1</v>
       </c>
       <c r="F616" s="15" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G616" s="15" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H616" s="11"/>
       <c r="I616" s="11"/>
@@ -31581,7 +31578,7 @@
     </row>
     <row r="617" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A617" s="11" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B617" s="11">
         <v>12</v>
@@ -31590,7 +31587,7 @@
         <v>25</v>
       </c>
       <c r="D617" s="11" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E617" s="11">
         <v>3</v>
@@ -31621,7 +31618,7 @@
     </row>
     <row r="618" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A618" s="11" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B618" s="11">
         <v>12</v>
@@ -31630,7 +31627,7 @@
         <v>25</v>
       </c>
       <c r="D618" s="11" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E618" s="11">
         <v>3</v>
@@ -31661,7 +31658,7 @@
     </row>
     <row r="619" spans="1:28" ht="122.25" customHeight="1">
       <c r="A619" s="11" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B619" s="11">
         <v>12</v>
@@ -31670,16 +31667,16 @@
         <v>27</v>
       </c>
       <c r="D619" s="11" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E619" s="12">
         <v>2</v>
       </c>
       <c r="F619" s="12" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G619" s="12" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H619" s="11"/>
       <c r="I619" s="11"/>
@@ -31705,7 +31702,7 @@
     </row>
     <row r="620" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A620" s="11" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B620" s="11">
         <v>12</v>
@@ -31714,7 +31711,7 @@
         <v>28</v>
       </c>
       <c r="D620" s="11" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E620" s="11">
         <v>3</v>
@@ -31745,7 +31742,7 @@
     </row>
     <row r="621" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A621" s="11" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B621" s="11">
         <v>12</v>
@@ -31754,7 +31751,7 @@
         <v>28</v>
       </c>
       <c r="D621" s="11" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E621" s="11">
         <v>3</v>
@@ -31785,7 +31782,7 @@
     </row>
     <row r="622" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A622" s="11" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B622" s="11">
         <v>12</v>
@@ -31794,7 +31791,7 @@
         <v>30</v>
       </c>
       <c r="D622" s="11" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E622" s="11">
         <v>3</v>
@@ -31825,7 +31822,7 @@
     </row>
     <row r="623" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A623" s="11" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B623" s="11">
         <v>12</v>
@@ -31834,7 +31831,7 @@
         <v>33</v>
       </c>
       <c r="D623" s="11" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E623" s="11">
         <v>3</v>
@@ -31865,7 +31862,7 @@
     </row>
     <row r="624" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A624" s="11" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B624" s="11">
         <v>12</v>
@@ -31874,7 +31871,7 @@
         <v>33</v>
       </c>
       <c r="D624" s="11" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E624" s="11">
         <v>3</v>
@@ -31905,7 +31902,7 @@
     </row>
     <row r="625" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A625" s="11" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B625" s="11">
         <v>12</v>
@@ -31914,7 +31911,7 @@
         <v>34</v>
       </c>
       <c r="D625" s="11" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E625" s="11">
         <v>3</v>
@@ -31945,7 +31942,7 @@
     </row>
     <row r="626" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A626" s="11" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B626" s="11">
         <v>12</v>
@@ -31954,7 +31951,7 @@
         <v>35</v>
       </c>
       <c r="D626" s="11" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E626" s="11">
         <v>3</v>
@@ -31985,7 +31982,7 @@
     </row>
     <row r="627" spans="1:28" ht="122.25" customHeight="1">
       <c r="A627" s="11" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B627" s="11">
         <v>12</v>
@@ -31994,16 +31991,16 @@
         <v>35</v>
       </c>
       <c r="D627" s="11" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E627" s="12">
         <v>2</v>
       </c>
       <c r="F627" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="G627" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H627" s="11"/>
       <c r="I627" s="11"/>
@@ -32029,7 +32026,7 @@
     </row>
     <row r="628" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A628" s="11" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B628" s="11">
         <v>12</v>
@@ -32038,7 +32035,7 @@
         <v>35</v>
       </c>
       <c r="D628" s="11" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E628" s="11">
         <v>3</v>
@@ -32069,7 +32066,7 @@
     </row>
     <row r="629" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A629" s="11" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B629" s="11">
         <v>12</v>
@@ -32078,7 +32075,7 @@
         <v>36</v>
       </c>
       <c r="D629" s="11" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E629" s="11">
         <v>3</v>
@@ -32109,7 +32106,7 @@
     </row>
     <row r="630" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A630" s="11" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B630" s="11">
         <v>12</v>
@@ -32118,16 +32115,16 @@
         <v>39</v>
       </c>
       <c r="D630" s="11" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E630" s="11">
+        <v>3</v>
+      </c>
+      <c r="F630" s="11" t="s">
         <v>1509</v>
       </c>
-      <c r="E630" s="11">
-        <v>3</v>
-      </c>
-      <c r="F630" s="11" t="s">
-        <v>1510</v>
-      </c>
       <c r="G630" s="11" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H630" s="11"/>
       <c r="I630" s="11"/>
@@ -32153,7 +32150,7 @@
     </row>
     <row r="631" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A631" s="11" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B631" s="11">
         <v>12</v>
@@ -32162,7 +32159,7 @@
         <v>39</v>
       </c>
       <c r="D631" s="11" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E631" s="11">
         <v>3</v>
@@ -32193,7 +32190,7 @@
     </row>
     <row r="632" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A632" s="11" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B632" s="11">
         <v>12</v>
@@ -32202,7 +32199,7 @@
         <v>39</v>
       </c>
       <c r="D632" s="11" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E632" s="11">
         <v>3</v>
@@ -32233,7 +32230,7 @@
     </row>
     <row r="633" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A633" s="11" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B633" s="11">
         <v>12</v>
@@ -32242,7 +32239,7 @@
         <v>41</v>
       </c>
       <c r="D633" s="11" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E633" s="11">
         <v>3</v>
@@ -32273,7 +32270,7 @@
     </row>
     <row r="634" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A634" s="11" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B634" s="11">
         <v>12</v>
@@ -32282,7 +32279,7 @@
         <v>41</v>
       </c>
       <c r="D634" s="11" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E634" s="11">
         <v>3</v>
@@ -32313,7 +32310,7 @@
     </row>
     <row r="635" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A635" s="11" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B635" s="11">
         <v>12</v>
@@ -32322,7 +32319,7 @@
         <v>41</v>
       </c>
       <c r="D635" s="11" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E635" s="11">
         <v>3</v>
@@ -32353,7 +32350,7 @@
     </row>
     <row r="636" spans="1:28" ht="122.25" customHeight="1">
       <c r="A636" s="11" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B636" s="11">
         <v>12</v>
@@ -32362,16 +32359,16 @@
         <v>41</v>
       </c>
       <c r="D636" s="11" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E636" s="12">
         <v>2</v>
       </c>
       <c r="F636" s="12" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G636" s="12" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H636" s="11"/>
       <c r="I636" s="11"/>
@@ -32397,7 +32394,7 @@
     </row>
     <row r="637" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A637" s="11" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B637" s="11">
         <v>12</v>
@@ -32406,7 +32403,7 @@
         <v>41</v>
       </c>
       <c r="D637" s="11" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E637" s="11">
         <v>3</v>
@@ -32437,7 +32434,7 @@
     </row>
     <row r="638" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A638" s="11" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B638" s="11">
         <v>12</v>
@@ -32446,7 +32443,7 @@
         <v>42</v>
       </c>
       <c r="D638" s="11" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E638" s="11">
         <v>3</v>
@@ -32477,7 +32474,7 @@
     </row>
     <row r="639" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A639" s="11" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B639" s="11">
         <v>12</v>
@@ -32486,7 +32483,7 @@
         <v>42</v>
       </c>
       <c r="D639" s="11" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E639" s="11">
         <v>3</v>
@@ -32517,7 +32514,7 @@
     </row>
     <row r="640" spans="1:28" ht="122.25" customHeight="1">
       <c r="A640" s="11" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B640" s="11">
         <v>12</v>
@@ -32526,16 +32523,16 @@
         <v>42</v>
       </c>
       <c r="D640" s="11" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E640" s="15">
         <v>2</v>
       </c>
       <c r="F640" s="15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G640" s="15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H640" s="11"/>
       <c r="I640" s="11"/>
@@ -32561,7 +32558,7 @@
     </row>
     <row r="641" spans="1:28" ht="122.25" customHeight="1">
       <c r="A641" s="11" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B641" s="11">
         <v>12</v>
@@ -32570,16 +32567,16 @@
         <v>43</v>
       </c>
       <c r="D641" s="11" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E641" s="12">
         <v>2</v>
       </c>
       <c r="F641" s="12" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="G641" s="12" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H641" s="11"/>
       <c r="I641" s="11"/>
@@ -32605,7 +32602,7 @@
     </row>
     <row r="642" spans="1:28" ht="122.25" customHeight="1">
       <c r="A642" s="11" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B642" s="11">
         <v>12</v>
@@ -32614,16 +32611,16 @@
         <v>43</v>
       </c>
       <c r="D642" s="11" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E642" s="12">
         <v>2</v>
       </c>
       <c r="F642" s="12" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="G642" s="12" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H642" s="11"/>
       <c r="I642" s="11"/>
@@ -32649,7 +32646,7 @@
     </row>
     <row r="643" spans="1:28" ht="122.25" customHeight="1">
       <c r="A643" s="11" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B643" s="11">
         <v>12</v>
@@ -32658,16 +32655,16 @@
         <v>43</v>
       </c>
       <c r="D643" s="11" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E643" s="15">
         <v>2</v>
       </c>
       <c r="F643" s="15" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="G643" s="15" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H643" s="11"/>
       <c r="I643" s="11"/>
@@ -32693,7 +32690,7 @@
     </row>
     <row r="644" spans="1:28" ht="122.25" customHeight="1">
       <c r="A644" s="11" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B644" s="11">
         <v>12</v>
@@ -32702,16 +32699,16 @@
         <v>43</v>
       </c>
       <c r="D644" s="11" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E644" s="12">
         <v>2</v>
       </c>
       <c r="F644" s="12" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G644" s="12" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H644" s="11"/>
       <c r="I644" s="11"/>
@@ -32737,7 +32734,7 @@
     </row>
     <row r="645" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A645" s="11" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B645" s="11">
         <v>12</v>
@@ -32746,7 +32743,7 @@
         <v>44</v>
       </c>
       <c r="D645" s="11" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E645" s="11">
         <v>3</v>
@@ -32777,7 +32774,7 @@
     </row>
     <row r="646" spans="1:28" ht="122.25" customHeight="1">
       <c r="A646" s="11" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B646" s="11">
         <v>12</v>
@@ -32786,16 +32783,16 @@
         <v>45</v>
       </c>
       <c r="D646" s="11" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E646" s="16">
         <v>2</v>
       </c>
       <c r="F646" s="16" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G646" s="16" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H646" s="11"/>
       <c r="I646" s="11"/>
@@ -32821,7 +32818,7 @@
     </row>
     <row r="647" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A647" s="11" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B647" s="11">
         <v>12</v>
@@ -32830,7 +32827,7 @@
         <v>45</v>
       </c>
       <c r="D647" s="11" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E647" s="11">
         <v>3</v>
@@ -32861,7 +32858,7 @@
     </row>
     <row r="648" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A648" s="11" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B648" s="11">
         <v>12</v>
@@ -32870,7 +32867,7 @@
         <v>46</v>
       </c>
       <c r="D648" s="11" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E648" s="11">
         <v>3</v>
@@ -32901,7 +32898,7 @@
     </row>
     <row r="649" spans="1:28" ht="122.25" customHeight="1">
       <c r="A649" s="11" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B649" s="11">
         <v>12</v>
@@ -32910,16 +32907,16 @@
         <v>46</v>
       </c>
       <c r="D649" s="11" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E649" s="15">
         <v>2</v>
       </c>
       <c r="F649" s="15" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="G649" s="15" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H649" s="11"/>
       <c r="I649" s="11"/>
@@ -32945,7 +32942,7 @@
     </row>
     <row r="650" spans="1:28" ht="122.25" customHeight="1">
       <c r="A650" s="11" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B650" s="11">
         <v>12</v>
@@ -32954,16 +32951,16 @@
         <v>49</v>
       </c>
       <c r="D650" s="11" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E650" s="12">
         <v>2</v>
       </c>
       <c r="F650" s="12" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G650" s="12" t="s">
         <v>1557</v>
-      </c>
-      <c r="G650" s="12" t="s">
-        <v>1558</v>
       </c>
       <c r="H650" s="11"/>
       <c r="I650" s="11"/>
@@ -32989,7 +32986,7 @@
     </row>
     <row r="651" spans="1:28" ht="122.25" customHeight="1">
       <c r="A651" s="11" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B651" s="11">
         <v>12</v>
@@ -32998,16 +32995,16 @@
         <v>49</v>
       </c>
       <c r="D651" s="11" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E651" s="12">
         <v>1</v>
       </c>
       <c r="F651" s="12" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G651" s="12" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H651" s="11"/>
       <c r="I651" s="11"/>
@@ -33033,7 +33030,7 @@
     </row>
     <row r="652" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A652" s="11" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B652" s="11">
         <v>12</v>
@@ -33042,7 +33039,7 @@
         <v>49</v>
       </c>
       <c r="D652" s="11" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E652" s="11">
         <v>3</v>
@@ -33073,7 +33070,7 @@
     </row>
     <row r="653" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A653" s="11" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B653" s="11">
         <v>12</v>
@@ -33082,7 +33079,7 @@
         <v>49</v>
       </c>
       <c r="D653" s="11" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E653" s="11">
         <v>3</v>
@@ -33113,7 +33110,7 @@
     </row>
     <row r="654" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A654" s="11" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B654" s="11">
         <v>12</v>
@@ -33122,7 +33119,7 @@
         <v>50</v>
       </c>
       <c r="D654" s="11" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E654" s="11">
         <v>3</v>
@@ -33153,7 +33150,7 @@
     </row>
     <row r="655" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A655" s="11" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B655" s="11">
         <v>12</v>
@@ -33162,7 +33159,7 @@
         <v>50</v>
       </c>
       <c r="D655" s="11" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E655" s="11">
         <v>3</v>
@@ -33193,7 +33190,7 @@
     </row>
     <row r="656" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A656" s="11" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B656" s="11">
         <v>12</v>
@@ -33202,7 +33199,7 @@
         <v>50</v>
       </c>
       <c r="D656" s="11" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="E656" s="11">
         <v>3</v>
@@ -33233,7 +33230,7 @@
     </row>
     <row r="657" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A657" s="11" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B657" s="11">
         <v>12</v>
@@ -33242,7 +33239,7 @@
         <v>51</v>
       </c>
       <c r="D657" s="11" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="E657" s="11">
         <v>3</v>
@@ -33273,7 +33270,7 @@
     </row>
     <row r="658" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A658" s="11" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B658" s="11">
         <v>12</v>
@@ -33282,7 +33279,7 @@
         <v>51</v>
       </c>
       <c r="D658" s="11" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E658" s="11">
         <v>3</v>
@@ -33313,7 +33310,7 @@
     </row>
     <row r="659" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A659" s="11" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B659" s="11">
         <v>12</v>
@@ -33322,7 +33319,7 @@
         <v>51</v>
       </c>
       <c r="D659" s="11" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E659" s="11">
         <v>3</v>
@@ -33353,7 +33350,7 @@
     </row>
     <row r="660" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A660" s="11" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B660" s="11">
         <v>12</v>
@@ -33362,7 +33359,7 @@
         <v>51</v>
       </c>
       <c r="D660" s="11" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E660" s="11">
         <v>3</v>
@@ -33393,7 +33390,7 @@
     </row>
     <row r="661" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A661" s="11" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B661" s="11">
         <v>12</v>
@@ -33402,7 +33399,7 @@
         <v>52</v>
       </c>
       <c r="D661" s="11" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E661" s="11">
         <v>3</v>
@@ -33433,7 +33430,7 @@
     </row>
     <row r="662" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A662" s="11" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B662" s="11">
         <v>12</v>
@@ -33442,7 +33439,7 @@
         <v>54</v>
       </c>
       <c r="D662" s="11" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E662" s="11">
         <v>3</v>
@@ -33473,7 +33470,7 @@
     </row>
     <row r="663" spans="1:28" ht="122.25" customHeight="1">
       <c r="A663" s="11" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B663" s="11">
         <v>12</v>
@@ -33482,16 +33479,16 @@
         <v>54</v>
       </c>
       <c r="D663" s="11" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E663" s="15">
         <v>2</v>
       </c>
       <c r="F663" s="15" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="G663" s="15" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H663" s="11"/>
       <c r="I663" s="11"/>
@@ -33517,7 +33514,7 @@
     </row>
     <row r="664" spans="1:28" ht="122.25" customHeight="1">
       <c r="A664" s="11" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B664" s="11">
         <v>12</v>
@@ -33526,16 +33523,16 @@
         <v>54</v>
       </c>
       <c r="D664" s="11" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E664" s="12">
         <v>2</v>
       </c>
       <c r="F664" s="12" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="G664" s="12" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H664" s="11"/>
       <c r="I664" s="11"/>
@@ -33561,7 +33558,7 @@
     </row>
     <row r="665" spans="1:28" ht="122.25" customHeight="1">
       <c r="A665" s="11" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B665" s="11">
         <v>12</v>
@@ -33570,16 +33567,16 @@
         <v>56</v>
       </c>
       <c r="D665" s="11" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E665" s="12">
         <v>2</v>
       </c>
       <c r="F665" s="12" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="G665" s="12" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H665" s="11"/>
       <c r="I665" s="11"/>
@@ -33605,7 +33602,7 @@
     </row>
     <row r="666" spans="1:28" ht="122.25" customHeight="1">
       <c r="A666" s="11" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B666" s="11">
         <v>12</v>
@@ -33614,16 +33611,16 @@
         <v>57</v>
       </c>
       <c r="D666" s="11" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E666" s="15">
         <v>2</v>
       </c>
       <c r="F666" s="15" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="G666" s="15" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H666" s="11"/>
       <c r="I666" s="11"/>
@@ -33649,7 +33646,7 @@
     </row>
     <row r="667" spans="1:28" ht="122.25" customHeight="1">
       <c r="A667" s="11" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B667" s="11">
         <v>12</v>
@@ -33658,16 +33655,16 @@
         <v>57</v>
       </c>
       <c r="D667" s="11" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E667" s="15">
         <v>2</v>
       </c>
       <c r="F667" s="15" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="G667" s="15" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H667" s="11"/>
       <c r="I667" s="11"/>
@@ -33693,7 +33690,7 @@
     </row>
     <row r="668" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A668" s="11" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B668" s="11">
         <v>12</v>
@@ -33702,7 +33699,7 @@
         <v>57</v>
       </c>
       <c r="D668" s="11" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E668" s="11">
         <v>3</v>
@@ -33733,7 +33730,7 @@
     </row>
     <row r="669" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A669" s="11" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B669" s="11">
         <v>12</v>
@@ -33742,7 +33739,7 @@
         <v>58</v>
       </c>
       <c r="D669" s="11" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E669" s="11">
         <v>3</v>
@@ -33773,7 +33770,7 @@
     </row>
     <row r="670" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A670" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B670" s="11">
         <v>12</v>
@@ -33782,7 +33779,7 @@
         <v>59</v>
       </c>
       <c r="D670" s="11" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E670" s="11">
         <v>3</v>
@@ -33813,7 +33810,7 @@
     </row>
     <row r="671" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A671" s="11" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B671" s="11">
         <v>12</v>
@@ -33822,7 +33819,7 @@
         <v>59</v>
       </c>
       <c r="D671" s="11" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E671" s="11">
         <v>3</v>
@@ -33853,7 +33850,7 @@
     </row>
     <row r="672" spans="1:28" ht="122.25" customHeight="1">
       <c r="A672" s="11" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B672" s="11">
         <v>12</v>
@@ -33862,16 +33859,16 @@
         <v>60</v>
       </c>
       <c r="D672" s="11" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E672" s="12">
         <v>1</v>
       </c>
       <c r="F672" s="12" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G672" s="12" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H672" s="11"/>
       <c r="I672" s="11"/>
@@ -33897,7 +33894,7 @@
     </row>
     <row r="673" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A673" s="11" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B673" s="11">
         <v>12</v>
@@ -33906,7 +33903,7 @@
         <v>60</v>
       </c>
       <c r="D673" s="11" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E673" s="11">
         <v>3</v>
@@ -33937,7 +33934,7 @@
     </row>
     <row r="674" spans="1:28" ht="122.25" customHeight="1">
       <c r="A674" s="11" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B674" s="11">
         <v>12</v>
@@ -33946,16 +33943,16 @@
         <v>62</v>
       </c>
       <c r="D674" s="11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E674" s="12">
         <v>1</v>
       </c>
       <c r="F674" s="12" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="G674" s="12" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H674" s="11"/>
       <c r="I674" s="11"/>
@@ -33981,7 +33978,7 @@
     </row>
     <row r="675" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A675" s="11" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B675" s="11">
         <v>12</v>
@@ -33990,7 +33987,7 @@
         <v>64</v>
       </c>
       <c r="D675" s="11" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E675" s="11">
         <v>3</v>
@@ -34021,7 +34018,7 @@
     </row>
     <row r="676" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A676" s="11" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B676" s="11">
         <v>12</v>
@@ -34030,7 +34027,7 @@
         <v>64</v>
       </c>
       <c r="D676" s="11" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E676" s="11">
         <v>3</v>
@@ -34061,7 +34058,7 @@
     </row>
     <row r="677" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A677" s="11" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B677" s="11">
         <v>12</v>
@@ -34070,7 +34067,7 @@
         <v>64</v>
       </c>
       <c r="D677" s="11" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E677" s="11">
         <v>3</v>
@@ -34101,7 +34098,7 @@
     </row>
     <row r="678" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A678" s="11" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B678" s="11">
         <v>12</v>
@@ -34110,7 +34107,7 @@
         <v>65</v>
       </c>
       <c r="D678" s="11" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E678" s="11">
         <v>3</v>
@@ -34141,7 +34138,7 @@
     </row>
     <row r="679" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A679" s="11" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B679" s="11">
         <v>12</v>
@@ -34150,7 +34147,7 @@
         <v>65</v>
       </c>
       <c r="D679" s="11" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E679" s="11">
         <v>3</v>
@@ -34181,7 +34178,7 @@
     </row>
     <row r="680" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A680" s="11" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B680" s="11">
         <v>12</v>
@@ -34190,7 +34187,7 @@
         <v>65</v>
       </c>
       <c r="D680" s="11" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E680" s="11">
         <v>3</v>
@@ -34221,7 +34218,7 @@
     </row>
     <row r="681" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A681" s="11" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B681" s="11">
         <v>12</v>
@@ -34230,7 +34227,7 @@
         <v>65</v>
       </c>
       <c r="D681" s="11" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E681" s="11">
         <v>3</v>
@@ -34261,7 +34258,7 @@
     </row>
     <row r="682" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A682" s="11" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B682" s="11">
         <v>12</v>
@@ -34270,7 +34267,7 @@
         <v>66</v>
       </c>
       <c r="D682" s="11" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E682" s="11">
         <v>3</v>
@@ -34301,7 +34298,7 @@
     </row>
     <row r="683" spans="1:28" ht="122.25" customHeight="1">
       <c r="A683" s="11" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B683" s="11">
         <v>12</v>
@@ -34310,16 +34307,16 @@
         <v>66</v>
       </c>
       <c r="D683" s="11" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E683" s="15">
         <v>2</v>
       </c>
       <c r="F683" s="15" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G683" s="15" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H683" s="11"/>
       <c r="I683" s="11"/>
@@ -34345,7 +34342,7 @@
     </row>
     <row r="684" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A684" s="11" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B684" s="11">
         <v>12</v>
@@ -34354,7 +34351,7 @@
         <v>66</v>
       </c>
       <c r="D684" s="11" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E684" s="11">
         <v>3</v>
@@ -34385,7 +34382,7 @@
     </row>
     <row r="685" spans="1:28" ht="122.25" customHeight="1">
       <c r="A685" s="11" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B685" s="11">
         <v>12</v>
@@ -34394,16 +34391,16 @@
         <v>66</v>
       </c>
       <c r="D685" s="11" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E685" s="15">
         <v>1</v>
       </c>
       <c r="F685" s="15" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="G685" s="15" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H685" s="11"/>
       <c r="I685" s="11"/>
@@ -34429,7 +34426,7 @@
     </row>
     <row r="686" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A686" s="11" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B686" s="11">
         <v>12</v>
@@ -34438,7 +34435,7 @@
         <v>66</v>
       </c>
       <c r="D686" s="11" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E686" s="11">
         <v>3</v>
@@ -34469,7 +34466,7 @@
     </row>
     <row r="687" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A687" s="11" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B687" s="11">
         <v>12</v>
@@ -34478,7 +34475,7 @@
         <v>67</v>
       </c>
       <c r="D687" s="11" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E687" s="11">
         <v>3</v>
@@ -34509,7 +34506,7 @@
     </row>
     <row r="688" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A688" s="11" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B688" s="11">
         <v>12</v>
@@ -34518,7 +34515,7 @@
         <v>68</v>
       </c>
       <c r="D688" s="11" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E688" s="11">
         <v>3</v>
@@ -34549,7 +34546,7 @@
     </row>
     <row r="689" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A689" s="11" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B689" s="11">
         <v>12</v>
@@ -34558,7 +34555,7 @@
         <v>68</v>
       </c>
       <c r="D689" s="11" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E689" s="11">
         <v>3</v>
@@ -34589,7 +34586,7 @@
     </row>
     <row r="690" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A690" s="11" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B690" s="11">
         <v>12</v>
@@ -34598,7 +34595,7 @@
         <v>68</v>
       </c>
       <c r="D690" s="11" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E690" s="11">
         <v>3</v>
@@ -34629,7 +34626,7 @@
     </row>
     <row r="691" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A691" s="11" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B691" s="11">
         <v>12</v>
@@ -34638,7 +34635,7 @@
         <v>70</v>
       </c>
       <c r="D691" s="11" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E691" s="11">
         <v>3</v>
@@ -34669,7 +34666,7 @@
     </row>
     <row r="692" spans="1:28" ht="122.25" customHeight="1">
       <c r="A692" s="11" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B692" s="11">
         <v>12</v>
@@ -34678,16 +34675,16 @@
         <v>70</v>
       </c>
       <c r="D692" s="11" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E692" s="12">
         <v>1</v>
       </c>
       <c r="F692" s="12" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G692" s="12" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H692" s="11"/>
       <c r="I692" s="11"/>
@@ -34713,7 +34710,7 @@
     </row>
     <row r="693" spans="1:28" ht="122.25" customHeight="1">
       <c r="A693" s="11" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B693" s="11">
         <v>12</v>
@@ -34722,16 +34719,16 @@
         <v>71</v>
       </c>
       <c r="D693" s="11" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E693" s="12">
         <v>2</v>
       </c>
       <c r="F693" s="12" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G693" s="12" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H693" s="11"/>
       <c r="I693" s="11"/>
@@ -34757,7 +34754,7 @@
     </row>
     <row r="694" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A694" s="11" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B694" s="11">
         <v>12</v>
@@ -34766,7 +34763,7 @@
         <v>71</v>
       </c>
       <c r="D694" s="11" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E694" s="11">
         <v>3</v>
@@ -34797,7 +34794,7 @@
     </row>
     <row r="695" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A695" s="11" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B695" s="11">
         <v>12</v>
@@ -34806,7 +34803,7 @@
         <v>72</v>
       </c>
       <c r="D695" s="11" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="E695" s="11">
         <v>3</v>
@@ -34837,7 +34834,7 @@
     </row>
     <row r="696" spans="1:28" ht="122.25" customHeight="1">
       <c r="A696" s="11" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B696" s="11">
         <v>12</v>
@@ -34846,16 +34843,16 @@
         <v>72</v>
       </c>
       <c r="D696" s="11" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="E696" s="12">
         <v>2</v>
       </c>
       <c r="F696" s="12" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="G696" s="12" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H696" s="11"/>
       <c r="I696" s="11"/>
@@ -34881,7 +34878,7 @@
     </row>
     <row r="697" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A697" s="11" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B697" s="11">
         <v>12</v>
@@ -34890,7 +34887,7 @@
         <v>72</v>
       </c>
       <c r="D697" s="11" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E697" s="11">
         <v>3</v>
@@ -34921,7 +34918,7 @@
     </row>
     <row r="698" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A698" s="11" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B698" s="11">
         <v>12</v>
@@ -34930,7 +34927,7 @@
         <v>73</v>
       </c>
       <c r="D698" s="11" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E698" s="11">
         <v>3</v>
@@ -34961,7 +34958,7 @@
     </row>
     <row r="699" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A699" s="11" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B699" s="11">
         <v>12</v>
@@ -34970,7 +34967,7 @@
         <v>73</v>
       </c>
       <c r="D699" s="11" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E699" s="11">
         <v>3</v>
@@ -35001,7 +34998,7 @@
     </row>
     <row r="700" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A700" s="11" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B700" s="11">
         <v>12</v>
@@ -35010,7 +35007,7 @@
         <v>73</v>
       </c>
       <c r="D700" s="11" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E700" s="11">
         <v>3</v>
@@ -35041,7 +35038,7 @@
     </row>
     <row r="701" spans="1:28" ht="122.25" customHeight="1">
       <c r="A701" s="11" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B701" s="11">
         <v>12</v>
@@ -35050,16 +35047,16 @@
         <v>73</v>
       </c>
       <c r="D701" s="11" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E701" s="12">
         <v>1</v>
       </c>
       <c r="F701" s="12" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G701" s="12" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H701" s="11"/>
       <c r="I701" s="11"/>
@@ -35085,7 +35082,7 @@
     </row>
     <row r="702" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A702" s="11" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B702" s="11">
         <v>12</v>
@@ -35094,7 +35091,7 @@
         <v>75</v>
       </c>
       <c r="D702" s="11" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E702" s="11">
         <v>3</v>
@@ -35125,7 +35122,7 @@
     </row>
     <row r="703" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A703" s="11" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B703" s="11">
         <v>12</v>
@@ -35134,7 +35131,7 @@
         <v>75</v>
       </c>
       <c r="D703" s="11" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E703" s="11">
         <v>3</v>
@@ -35165,7 +35162,7 @@
     </row>
     <row r="704" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A704" s="11" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B704" s="11">
         <v>12</v>
@@ -35174,7 +35171,7 @@
         <v>76</v>
       </c>
       <c r="D704" s="11" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E704" s="11">
         <v>3</v>
@@ -35205,7 +35202,7 @@
     </row>
     <row r="705" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A705" s="11" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B705" s="11">
         <v>12</v>
@@ -35214,7 +35211,7 @@
         <v>76</v>
       </c>
       <c r="D705" s="11" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E705" s="11">
         <v>3</v>
@@ -35245,7 +35242,7 @@
     </row>
     <row r="706" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A706" s="11" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B706" s="11">
         <v>12</v>
@@ -35254,7 +35251,7 @@
         <v>76</v>
       </c>
       <c r="D706" s="11" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E706" s="11">
         <v>3</v>
@@ -35285,7 +35282,7 @@
     </row>
     <row r="707" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A707" s="11" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B707" s="11">
         <v>12</v>
@@ -35294,7 +35291,7 @@
         <v>78</v>
       </c>
       <c r="D707" s="11" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E707" s="11">
         <v>3</v>
@@ -35325,7 +35322,7 @@
     </row>
     <row r="708" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A708" s="11" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B708" s="11">
         <v>12</v>
@@ -35334,7 +35331,7 @@
         <v>78</v>
       </c>
       <c r="D708" s="11" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E708" s="11">
         <v>3</v>
@@ -35365,7 +35362,7 @@
     </row>
     <row r="709" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A709" s="11" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B709" s="11">
         <v>12</v>
@@ -35374,7 +35371,7 @@
         <v>78</v>
       </c>
       <c r="D709" s="11" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E709" s="11">
         <v>3</v>
@@ -35405,7 +35402,7 @@
     </row>
     <row r="710" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A710" s="11" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B710" s="11">
         <v>12</v>
@@ -35414,7 +35411,7 @@
         <v>78</v>
       </c>
       <c r="D710" s="11" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E710" s="11">
         <v>3</v>
@@ -35445,7 +35442,7 @@
     </row>
     <row r="711" spans="1:28" ht="122.25" customHeight="1">
       <c r="A711" s="11" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B711" s="11">
         <v>12</v>
@@ -35454,16 +35451,16 @@
         <v>79</v>
       </c>
       <c r="D711" s="11" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E711" s="12">
         <v>2</v>
       </c>
       <c r="F711" s="12" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="G711" s="12" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H711" s="11"/>
       <c r="I711" s="11"/>
@@ -35489,7 +35486,7 @@
     </row>
     <row r="712" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A712" s="11" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B712" s="11">
         <v>12</v>
@@ -35498,7 +35495,7 @@
         <v>79</v>
       </c>
       <c r="D712" s="11" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E712" s="11">
         <v>3</v>
@@ -35529,7 +35526,7 @@
     </row>
     <row r="713" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A713" s="11" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B713" s="11">
         <v>12</v>
@@ -35538,7 +35535,7 @@
         <v>79</v>
       </c>
       <c r="D713" s="11" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E713" s="11">
         <v>3</v>
@@ -35569,7 +35566,7 @@
     </row>
     <row r="714" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A714" s="11" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B714" s="11">
         <v>12</v>
@@ -35578,7 +35575,7 @@
         <v>79</v>
       </c>
       <c r="D714" s="11" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E714" s="11">
         <v>3</v>
@@ -35609,7 +35606,7 @@
     </row>
     <row r="715" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A715" s="11" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B715" s="11">
         <v>12</v>
@@ -35618,7 +35615,7 @@
         <v>81</v>
       </c>
       <c r="D715" s="11" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E715" s="11">
         <v>3</v>
@@ -35649,7 +35646,7 @@
     </row>
     <row r="716" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A716" s="11" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B716" s="11">
         <v>12</v>
@@ -35658,7 +35655,7 @@
         <v>81</v>
       </c>
       <c r="D716" s="11" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E716" s="11">
         <v>3</v>
@@ -35689,7 +35686,7 @@
     </row>
     <row r="717" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A717" s="11" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B717" s="11">
         <v>12</v>
@@ -35698,7 +35695,7 @@
         <v>81</v>
       </c>
       <c r="D717" s="11" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E717" s="11">
         <v>3</v>
@@ -35729,7 +35726,7 @@
     </row>
     <row r="718" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A718" s="11" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B718" s="11">
         <v>12</v>
@@ -35738,7 +35735,7 @@
         <v>82</v>
       </c>
       <c r="D718" s="11" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E718" s="11">
         <v>3</v>
@@ -35769,7 +35766,7 @@
     </row>
     <row r="719" spans="1:28" ht="122.25" customHeight="1">
       <c r="A719" s="11" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B719" s="11">
         <v>12</v>
@@ -35778,16 +35775,16 @@
         <v>83</v>
       </c>
       <c r="D719" s="11" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E719" s="12">
         <v>2</v>
       </c>
       <c r="F719" s="12" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="G719" s="12" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H719" s="11"/>
       <c r="I719" s="11"/>
@@ -35813,7 +35810,7 @@
     </row>
     <row r="720" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A720" s="11" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B720" s="11">
         <v>12</v>
@@ -35822,7 +35819,7 @@
         <v>83</v>
       </c>
       <c r="D720" s="11" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E720" s="11">
         <v>3</v>
@@ -35853,7 +35850,7 @@
     </row>
     <row r="721" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A721" s="11" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B721" s="11">
         <v>12</v>
@@ -35862,7 +35859,7 @@
         <v>83</v>
       </c>
       <c r="D721" s="11" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E721" s="11">
         <v>3</v>
@@ -35893,7 +35890,7 @@
     </row>
     <row r="722" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A722" s="11" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B722" s="11">
         <v>12</v>
@@ -35902,7 +35899,7 @@
         <v>84</v>
       </c>
       <c r="D722" s="11" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E722" s="11">
         <v>3</v>
@@ -35933,7 +35930,7 @@
     </row>
     <row r="723" spans="1:28" ht="122.25" customHeight="1">
       <c r="A723" s="11" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B723" s="11">
         <v>12</v>
@@ -35942,16 +35939,16 @@
         <v>85</v>
       </c>
       <c r="D723" s="11" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="E723" s="12">
         <v>2</v>
       </c>
       <c r="F723" s="12" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="G723" s="12" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H723" s="11"/>
       <c r="I723" s="11"/>
@@ -35977,7 +35974,7 @@
     </row>
     <row r="724" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A724" s="11" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B724" s="11">
         <v>12</v>
@@ -35986,7 +35983,7 @@
         <v>85</v>
       </c>
       <c r="D724" s="11" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="E724" s="11">
         <v>3</v>
@@ -36017,7 +36014,7 @@
     </row>
     <row r="725" spans="1:28" ht="122.25" customHeight="1">
       <c r="A725" s="11" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B725" s="11">
         <v>12</v>
@@ -36026,16 +36023,16 @@
         <v>85</v>
       </c>
       <c r="D725" s="11" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E725" s="12">
         <v>2</v>
       </c>
       <c r="F725" s="12" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G725" s="12" t="s">
         <v>1725</v>
-      </c>
-      <c r="G725" s="12" t="s">
-        <v>1726</v>
       </c>
       <c r="H725" s="11"/>
       <c r="I725" s="11"/>
@@ -36061,7 +36058,7 @@
     </row>
     <row r="726" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A726" s="11" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B726" s="11">
         <v>12</v>
@@ -36070,7 +36067,7 @@
         <v>85</v>
       </c>
       <c r="D726" s="11" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="E726" s="11">
         <v>3</v>
@@ -36101,7 +36098,7 @@
     </row>
     <row r="727" spans="1:28" ht="122.25" customHeight="1">
       <c r="A727" s="11" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B727" s="11">
         <v>12</v>
@@ -36110,16 +36107,16 @@
         <v>85</v>
       </c>
       <c r="D727" s="11" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E727" s="15">
         <v>2</v>
       </c>
       <c r="F727" s="15" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="G727" s="15" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H727" s="11"/>
       <c r="I727" s="11"/>
@@ -36145,7 +36142,7 @@
     </row>
     <row r="728" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A728" s="11" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B728" s="11">
         <v>12</v>
@@ -36154,7 +36151,7 @@
         <v>86</v>
       </c>
       <c r="D728" s="11" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E728" s="11">
         <v>3</v>
@@ -36185,7 +36182,7 @@
     </row>
     <row r="729" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A729" s="11" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B729" s="11">
         <v>12</v>
@@ -36194,7 +36191,7 @@
         <v>87</v>
       </c>
       <c r="D729" s="11" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E729" s="11">
         <v>3</v>
@@ -36225,7 +36222,7 @@
     </row>
     <row r="730" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A730" s="11" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B730" s="11">
         <v>12</v>
@@ -36234,7 +36231,7 @@
         <v>87</v>
       </c>
       <c r="D730" s="11" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="E730" s="11">
         <v>3</v>
@@ -36265,7 +36262,7 @@
     </row>
     <row r="731" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A731" s="11" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B731" s="11">
         <v>12</v>
@@ -36274,7 +36271,7 @@
         <v>87</v>
       </c>
       <c r="D731" s="11" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="E731" s="11">
         <v>3</v>
@@ -36305,7 +36302,7 @@
     </row>
     <row r="732" spans="1:28" ht="122.25" customHeight="1">
       <c r="A732" s="11" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B732" s="11">
         <v>12</v>
@@ -36314,16 +36311,16 @@
         <v>88</v>
       </c>
       <c r="D732" s="11" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E732" s="12">
         <v>1</v>
       </c>
       <c r="F732" s="12" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G732" s="12" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H732" s="11"/>
       <c r="I732" s="11"/>
@@ -36349,7 +36346,7 @@
     </row>
     <row r="733" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A733" s="11" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B733" s="11">
         <v>12</v>
@@ -36358,7 +36355,7 @@
         <v>88</v>
       </c>
       <c r="D733" s="11" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E733" s="11">
         <v>3</v>
@@ -36389,7 +36386,7 @@
     </row>
     <row r="734" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A734" s="11" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B734" s="11">
         <v>12</v>
@@ -36398,7 +36395,7 @@
         <v>89</v>
       </c>
       <c r="D734" s="11" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="E734" s="11">
         <v>3</v>
@@ -36429,7 +36426,7 @@
     </row>
     <row r="735" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A735" s="11" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B735" s="11">
         <v>12</v>
@@ -36438,7 +36435,7 @@
         <v>97</v>
       </c>
       <c r="D735" s="11" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E735" s="11">
         <v>3</v>
@@ -36469,7 +36466,7 @@
     </row>
     <row r="736" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A736" s="22" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B736" s="11">
         <v>12</v>
@@ -36478,7 +36475,7 @@
         <v>101</v>
       </c>
       <c r="D736" s="11" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="E736" s="11"/>
       <c r="F736" s="11"/>
@@ -36507,7 +36504,7 @@
     </row>
     <row r="737" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A737" s="22" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B737" s="11">
         <v>12</v>
@@ -36516,7 +36513,7 @@
         <v>101</v>
       </c>
       <c r="D737" s="11" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E737" s="11"/>
       <c r="F737" s="11"/>
@@ -36545,7 +36542,7 @@
     </row>
     <row r="738" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A738" s="22" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B738" s="11">
         <v>12</v>
@@ -36554,7 +36551,7 @@
         <v>101</v>
       </c>
       <c r="D738" s="11" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E738" s="11"/>
       <c r="F738" s="11"/>
@@ -36583,7 +36580,7 @@
     </row>
     <row r="739" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A739" s="11" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B739" s="11">
         <v>12</v>
@@ -36592,7 +36589,7 @@
         <v>103</v>
       </c>
       <c r="D739" s="11" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E739" s="11">
         <v>3</v>
@@ -36623,7 +36620,7 @@
     </row>
     <row r="740" spans="1:28" ht="122.25" hidden="1" customHeight="1">
       <c r="A740" s="11" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B740" s="11">
         <v>12</v>
@@ -36632,7 +36629,7 @@
         <v>104</v>
       </c>
       <c r="D740" s="11" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E740" s="11">
         <v>3</v>
